--- a/JupyterNotebooks/AvgHW/Alpha1F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,18 +82,21 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,31 +626,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9995089791943356</v>
+        <v>0.9995050687056324</v>
       </c>
       <c r="D3">
         <v>1.001974138940215</v>
       </c>
       <c r="E3">
-        <v>0.9995050687056324</v>
+        <v>0.9995089791943357</v>
       </c>
       <c r="F3">
-        <v>0.9995089791943356</v>
+        <v>1.001974138940215</v>
       </c>
       <c r="G3">
+        <v>0.9995089791943357</v>
+      </c>
+      <c r="H3">
         <v>0.998679441927302</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.001086681666614</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.9995062097700599</v>
       </c>
-      <c r="J3">
-        <v>1.001974138940215</v>
-      </c>
       <c r="K3">
-        <v>0.9995089791943356</v>
+        <v>0.9995089791943357</v>
       </c>
       <c r="L3">
         <v>0.9995050687056324</v>
@@ -728,7 +680,7 @@
         <v>1.000043420034026</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9990521657258106</v>
+        <v>0.9990445177703934</v>
       </c>
       <c r="D4">
         <v>1.003811004089877</v>
       </c>
       <c r="E4">
-        <v>0.9990445177703934</v>
+        <v>0.9990521657258106</v>
       </c>
       <c r="F4">
+        <v>1.003811004089877</v>
+      </c>
+      <c r="G4">
         <v>0.9990521657258106</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.9974505937605196</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.002097821896416</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.9990467475825771</v>
-      </c>
-      <c r="J4">
-        <v>1.003811004089877</v>
       </c>
       <c r="K4">
         <v>0.9990521657258106</v>
@@ -790,7 +742,7 @@
         <v>1.000083808470932</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9981828813508146</v>
+        <v>0.998169162602943</v>
       </c>
       <c r="D5">
         <v>1.007303754946199</v>
       </c>
       <c r="E5">
-        <v>0.998169162602943</v>
+        <v>0.9981828813508146</v>
       </c>
       <c r="F5">
+        <v>1.007303754946199</v>
+      </c>
+      <c r="G5">
         <v>0.9981828813508146</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.9951151586072533</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.00402024402196</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.9981731589032151</v>
-      </c>
-      <c r="J5">
-        <v>1.007303754946199</v>
       </c>
       <c r="K5">
         <v>0.9981828813508146</v>
@@ -852,7 +804,7 @@
         <v>1.000160726738731</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9973345171581478</v>
+        <v>0.9973148471175791</v>
       </c>
       <c r="D6">
         <v>1.010712489876634</v>
       </c>
       <c r="E6">
-        <v>0.9973148471175791</v>
+        <v>0.9973345171581478</v>
       </c>
       <c r="F6">
+        <v>1.010712489876634</v>
+      </c>
+      <c r="G6">
         <v>0.9973345171581478</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.9928358624022283</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.00589641675649</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.9973205829757494</v>
-      </c>
-      <c r="J6">
-        <v>1.010712489876634</v>
       </c>
       <c r="K6">
         <v>0.9973345171581478</v>
@@ -914,7 +866,7 @@
         <v>1.000235786047805</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999680930491397</v>
+        <v>0.999968238490723</v>
       </c>
       <c r="D7">
         <v>1.000127254257054</v>
       </c>
       <c r="E7">
-        <v>0.9999682384907231</v>
+        <v>0.9999680930491397</v>
       </c>
       <c r="F7">
+        <v>1.000127254257054</v>
+      </c>
+      <c r="G7">
         <v>0.9999680930491397</v>
       </c>
-      <c r="G7">
-        <v>0.9999153339727832</v>
-      </c>
       <c r="H7">
+        <v>0.999915333972783</v>
+      </c>
+      <c r="I7">
         <v>1.000069956659459</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.999968197093725</v>
-      </c>
-      <c r="J7">
-        <v>1.000127254257054</v>
       </c>
       <c r="K7">
         <v>0.9999680930491397</v>
       </c>
       <c r="L7">
-        <v>0.9999682384907231</v>
+        <v>0.999968238490723</v>
       </c>
       <c r="M7">
         <v>1.000047746373889</v>
@@ -976,7 +928,7 @@
         <v>1.000002845587147</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999285444560237</v>
+        <v>0.9999285719978939</v>
       </c>
       <c r="D8">
         <v>1.00028575229939</v>
       </c>
       <c r="E8">
-        <v>0.9999285719978939</v>
+        <v>0.999928544456024</v>
       </c>
       <c r="F8">
-        <v>0.9999285444560237</v>
+        <v>1.00028575229939</v>
       </c>
       <c r="G8">
+        <v>0.999928544456024</v>
+      </c>
+      <c r="H8">
         <v>0.9998095337126099</v>
       </c>
-      <c r="H8">
-        <v>1.00015715780468</v>
-      </c>
       <c r="I8">
-        <v>0.9999285646702365</v>
+        <v>1.000157157804681</v>
       </c>
       <c r="J8">
-        <v>1.00028575229939</v>
+        <v>0.9999285646702367</v>
       </c>
       <c r="K8">
-        <v>0.9999285444560237</v>
+        <v>0.999928544456024</v>
       </c>
       <c r="L8">
         <v>0.9999285719978939</v>
@@ -1038,7 +990,7 @@
         <v>1.000006354156806</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,34 +998,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999056328352719</v>
+        <v>0.9999049373744728</v>
       </c>
       <c r="D9">
         <v>1.000379257348897</v>
       </c>
       <c r="E9">
-        <v>0.9999049373744727</v>
+        <v>0.999905632835272</v>
       </c>
       <c r="F9">
-        <v>0.9999056328352719</v>
+        <v>1.000379257348897</v>
       </c>
       <c r="G9">
+        <v>0.999905632835272</v>
+      </c>
+      <c r="H9">
         <v>0.9997463698269369</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.000208753503142</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.9999051406293841</v>
       </c>
-      <c r="J9">
-        <v>1.000379257348897</v>
-      </c>
       <c r="K9">
-        <v>0.9999056328352719</v>
+        <v>0.999905632835272</v>
       </c>
       <c r="L9">
-        <v>0.9999049373744727</v>
+        <v>0.9999049373744728</v>
       </c>
       <c r="M9">
         <v>1.000142097361685</v>
@@ -1100,7 +1052,7 @@
         <v>1.000008348586351</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,31 +1060,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9997906000417701</v>
+        <v>0.9997900146754395</v>
       </c>
       <c r="D10">
         <v>1.000839106437341</v>
       </c>
       <c r="E10">
-        <v>0.9997900146754395</v>
+        <v>0.9997906000417703</v>
       </c>
       <c r="F10">
-        <v>0.9997906000417701</v>
+        <v>1.000839106437341</v>
       </c>
       <c r="G10">
+        <v>0.9997906000417703</v>
+      </c>
+      <c r="H10">
         <v>0.9994399286414379</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.000461643950858</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.9997901865837786</v>
       </c>
-      <c r="J10">
-        <v>1.000839106437341</v>
-      </c>
       <c r="K10">
-        <v>0.9997906000417701</v>
+        <v>0.9997906000417703</v>
       </c>
       <c r="L10">
         <v>0.9997900146754395</v>
@@ -1162,7 +1114,7 @@
         <v>1.000018580055104</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9996709748725832</v>
+        <v>0.9996676153769876</v>
       </c>
       <c r="D11">
         <v>1.001324736609869</v>
       </c>
       <c r="E11">
-        <v>0.9996676153769876</v>
+        <v>0.9996709748725832</v>
       </c>
       <c r="F11">
+        <v>1.001324736609869</v>
+      </c>
+      <c r="G11">
         <v>0.9996709748725832</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.999113005494895</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.000729384138211</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.9996685970698705</v>
-      </c>
-      <c r="J11">
-        <v>1.001324736609869</v>
       </c>
       <c r="K11">
         <v>0.9996709748725832</v>
@@ -1224,7 +1176,7 @@
         <v>1.000029052260403</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001926814300016</v>
+        <v>1.001628178870439</v>
       </c>
       <c r="D12">
         <v>0.9930606403511493</v>
       </c>
       <c r="E12">
-        <v>1.001628178870439</v>
+        <v>1.001926814300016</v>
       </c>
       <c r="F12">
+        <v>0.9930606403511493</v>
+      </c>
+      <c r="G12">
         <v>1.001926814300016</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1.004284944662976</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.9962524615799423</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.001715254269505</v>
-      </c>
-      <c r="J12">
-        <v>0.9930606403511493</v>
       </c>
       <c r="K12">
         <v>1.001926814300016</v>
@@ -1262,10 +1214,10 @@
         <v>1.001628178870439</v>
       </c>
       <c r="M12">
-        <v>0.9973444096107941</v>
+        <v>0.997344409610794</v>
       </c>
       <c r="N12">
-        <v>0.9973444096107941</v>
+        <v>0.997344409610794</v>
       </c>
       <c r="O12">
         <v>0.9969804269338435</v>
@@ -1286,7 +1238,7 @@
         <v>0.9998113823390044</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000338328286865</v>
+        <v>1.000463792942587</v>
       </c>
       <c r="D13">
         <v>0.9983240710954566</v>
       </c>
       <c r="E13">
-        <v>1.000463792942587</v>
+        <v>1.000338328286865</v>
       </c>
       <c r="F13">
+        <v>0.9983240710954566</v>
+      </c>
+      <c r="G13">
         <v>1.000338328286865</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.001260677753924</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.9990492061484643</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.000427214557603</v>
-      </c>
-      <c r="J13">
-        <v>0.9983240710954566</v>
       </c>
       <c r="K13">
         <v>1.000338328286865</v>
@@ -1348,7 +1300,7 @@
         <v>0.9999772151308166</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.002724931667661</v>
+      </c>
+      <c r="D14">
+        <v>0.9897079552393377</v>
+      </c>
+      <c r="E14">
         <v>1.00229955870053</v>
       </c>
-      <c r="D14">
-        <v>0.9897079552393379</v>
-      </c>
-      <c r="E14">
-        <v>1.002724931667661</v>
-      </c>
       <c r="F14">
+        <v>0.9897079552393377</v>
+      </c>
+      <c r="G14">
         <v>1.00229955870053</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.007347508454681</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.9942409311711703</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.002600916710594</v>
-      </c>
-      <c r="J14">
-        <v>0.9897079552393379</v>
       </c>
       <c r="K14">
         <v>1.00229955870053</v>
@@ -1386,16 +1338,16 @@
         <v>1.002724931667661</v>
       </c>
       <c r="M14">
-        <v>0.9962164434534995</v>
+        <v>0.9962164434534996</v>
       </c>
       <c r="N14">
-        <v>0.9962164434534995</v>
+        <v>0.9962164434534996</v>
       </c>
       <c r="O14">
         <v>0.9955579393593897</v>
       </c>
       <c r="P14">
-        <v>0.998244148535843</v>
+        <v>0.9982441485358432</v>
       </c>
       <c r="Q14">
         <v>0.9982441485358432</v>
@@ -1410,7 +1362,7 @@
         <v>0.9998203003239957</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.00078182513898</v>
+        <v>1.000606737637396</v>
       </c>
       <c r="D15">
         <v>0.9973229015443735</v>
       </c>
       <c r="E15">
-        <v>1.000606737637396</v>
+        <v>1.00078182513898</v>
       </c>
       <c r="F15">
+        <v>0.9973229015443735</v>
+      </c>
+      <c r="G15">
         <v>1.00078182513898</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.001584642071828</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.9985681129572284</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.00065779050995</v>
-      </c>
-      <c r="J15">
-        <v>0.9973229015443735</v>
       </c>
       <c r="K15">
         <v>1.00078182513898</v>
@@ -1460,19 +1412,19 @@
         <v>0.9995704881069165</v>
       </c>
       <c r="Q15">
-        <v>0.9995704881069165</v>
+        <v>0.9995704881069164</v>
       </c>
       <c r="R15">
-        <v>0.9998733223649324</v>
+        <v>0.9998733223649323</v>
       </c>
       <c r="S15">
-        <v>0.9998733223649324</v>
+        <v>0.9998733223649323</v>
       </c>
       <c r="T15">
-        <v>0.999920334976626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9999203349766259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999971371406151</v>
+        <v>0.9903509073044839</v>
       </c>
       <c r="D16">
-        <v>1.000008667036452</v>
+        <v>1.038501574190725</v>
       </c>
       <c r="E16">
-        <v>0.9999982201373447</v>
+        <v>0.9904172594852118</v>
       </c>
       <c r="F16">
-        <v>0.9999971371406151</v>
+        <v>1.038501574190725</v>
       </c>
       <c r="G16">
-        <v>0.9999954634901617</v>
+        <v>0.9904172594852118</v>
       </c>
       <c r="H16">
-        <v>1.00000451677198</v>
+        <v>0.9742564560791315</v>
       </c>
       <c r="I16">
-        <v>0.9999979053407559</v>
+        <v>1.021191219788074</v>
       </c>
       <c r="J16">
-        <v>1.000008667036452</v>
+        <v>0.9903702525280895</v>
       </c>
       <c r="K16">
-        <v>0.9999971371406151</v>
+        <v>0.9904172594852118</v>
       </c>
       <c r="L16">
-        <v>0.9999982201373447</v>
+        <v>0.9903509073044839</v>
       </c>
       <c r="M16">
-        <v>1.000003443586899</v>
+        <v>1.014426240747605</v>
       </c>
       <c r="N16">
-        <v>1.000003443586899</v>
+        <v>1.014426240747605</v>
       </c>
       <c r="O16">
-        <v>1.000003801315259</v>
+        <v>1.016681233761094</v>
       </c>
       <c r="P16">
-        <v>1.000001341438137</v>
+        <v>1.006423246993474</v>
       </c>
       <c r="Q16">
-        <v>1.000001341438137</v>
+        <v>1.006423246993474</v>
       </c>
       <c r="R16">
-        <v>1.000000290363757</v>
+        <v>1.002421750116408</v>
       </c>
       <c r="S16">
-        <v>1.000000290363757</v>
+        <v>1.002421750116408</v>
       </c>
       <c r="T16">
-        <v>1.000000318319552</v>
+        <v>1.000847944895953</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999575928523741</v>
+        <v>0.99211599716858</v>
       </c>
       <c r="D17">
-        <v>1.000172314683491</v>
+        <v>1.031487071664842</v>
       </c>
       <c r="E17">
-        <v>0.9999565484448527</v>
+        <v>0.9921502510957574</v>
       </c>
       <c r="F17">
-        <v>0.9999575928523741</v>
+        <v>1.031487071664842</v>
       </c>
       <c r="G17">
-        <v>0.999883933753003</v>
+        <v>0.9921502510957574</v>
       </c>
       <c r="H17">
-        <v>1.000095015443496</v>
+        <v>0.9789694746705115</v>
       </c>
       <c r="I17">
-        <v>0.9999568539160035</v>
+        <v>1.017325815791424</v>
       </c>
       <c r="J17">
-        <v>1.000172314683491</v>
+        <v>0.99212598439397</v>
       </c>
       <c r="K17">
-        <v>0.9999575928523741</v>
+        <v>0.9921502510957574</v>
       </c>
       <c r="L17">
-        <v>0.9999565484448527</v>
+        <v>0.99211599716858</v>
       </c>
       <c r="M17">
-        <v>1.000064431564172</v>
+        <v>1.011801534416711</v>
       </c>
       <c r="N17">
-        <v>1.000064431564172</v>
+        <v>1.011801534416711</v>
       </c>
       <c r="O17">
-        <v>1.000074626190613</v>
+        <v>1.013642961541615</v>
       </c>
       <c r="P17">
-        <v>1.000028818660239</v>
+        <v>1.00525110664306</v>
       </c>
       <c r="Q17">
-        <v>1.000028818660239</v>
+        <v>1.00525110664306</v>
       </c>
       <c r="R17">
-        <v>1.000011012208273</v>
+        <v>1.001975892756234</v>
       </c>
       <c r="S17">
-        <v>1.000011012208273</v>
+        <v>1.001975892756234</v>
       </c>
       <c r="T17">
-        <v>1.00000370984887</v>
+        <v>1.000695765797514</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9998468388062062</v>
+        <v>0.9956780518044105</v>
       </c>
       <c r="D18">
-        <v>1.000609039630626</v>
+        <v>1.017328676008452</v>
       </c>
       <c r="E18">
-        <v>0.9998482435396185</v>
+        <v>0.9956494357383376</v>
       </c>
       <c r="F18">
-        <v>0.9998468388062062</v>
+        <v>1.017328676008452</v>
       </c>
       <c r="G18">
-        <v>0.9995955785206447</v>
+        <v>0.9956494357383376</v>
       </c>
       <c r="H18">
-        <v>1.000334647094415</v>
+        <v>0.9884802527515555</v>
       </c>
       <c r="I18">
-        <v>0.9998478323357067</v>
+        <v>1.009524150874993</v>
       </c>
       <c r="J18">
-        <v>1.000609039630626</v>
+        <v>0.9956697080117675</v>
       </c>
       <c r="K18">
-        <v>0.9998468388062062</v>
+        <v>0.9956494357383376</v>
       </c>
       <c r="L18">
-        <v>0.9998482435396185</v>
+        <v>0.9956780518044105</v>
       </c>
       <c r="M18">
-        <v>1.000228641585122</v>
+        <v>1.006503363906431</v>
       </c>
       <c r="N18">
-        <v>1.000228641585122</v>
+        <v>1.006503363906431</v>
       </c>
       <c r="O18">
-        <v>1.000263976754886</v>
+        <v>1.007510292895952</v>
       </c>
       <c r="P18">
-        <v>1.00010137399215</v>
+        <v>1.0028853878504</v>
       </c>
       <c r="Q18">
-        <v>1.00010137399215</v>
+        <v>1.0028853878504</v>
       </c>
       <c r="R18">
-        <v>1.000037740195664</v>
+        <v>1.001076399822384</v>
       </c>
       <c r="S18">
-        <v>1.000037740195664</v>
+        <v>1.001076399822384</v>
       </c>
       <c r="T18">
-        <v>1.000013696654536</v>
+        <v>1.000388379198253</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9953072836834721</v>
+      </c>
+      <c r="D19">
+        <v>1.018836570298831</v>
+      </c>
+      <c r="E19">
+        <v>0.995261293062637</v>
+      </c>
+      <c r="F19">
+        <v>1.018836570298831</v>
+      </c>
+      <c r="G19">
+        <v>0.995261293062637</v>
+      </c>
+      <c r="H19">
+        <v>0.9874948513908497</v>
+      </c>
+      <c r="I19">
+        <v>1.010349471875714</v>
+      </c>
+      <c r="J19">
+        <v>0.9952938737281763</v>
+      </c>
+      <c r="K19">
+        <v>0.995261293062637</v>
+      </c>
+      <c r="L19">
+        <v>0.9953072836834721</v>
+      </c>
+      <c r="M19">
+        <v>1.007071926991151</v>
+      </c>
+      <c r="N19">
+        <v>1.007071926991151</v>
+      </c>
+      <c r="O19">
+        <v>1.008164441952672</v>
+      </c>
+      <c r="P19">
+        <v>1.00313504901498</v>
+      </c>
+      <c r="Q19">
+        <v>1.00313504901498</v>
+      </c>
+      <c r="R19">
+        <v>1.001166610026894</v>
+      </c>
+      <c r="S19">
+        <v>1.001166610026894</v>
+      </c>
+      <c r="T19">
+        <v>1.00042389067328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999982201373447</v>
+      </c>
+      <c r="D20">
+        <v>1.000008667036453</v>
+      </c>
+      <c r="E20">
+        <v>0.999997137140615</v>
+      </c>
+      <c r="F20">
+        <v>1.000008667036453</v>
+      </c>
+      <c r="G20">
+        <v>0.999997137140615</v>
+      </c>
+      <c r="H20">
+        <v>0.9999954634901617</v>
+      </c>
+      <c r="I20">
+        <v>1.00000451677198</v>
+      </c>
+      <c r="J20">
+        <v>0.9999979053407558</v>
+      </c>
+      <c r="K20">
+        <v>0.999997137140615</v>
+      </c>
+      <c r="L20">
+        <v>0.9999982201373447</v>
+      </c>
+      <c r="M20">
+        <v>1.000003443586899</v>
+      </c>
+      <c r="N20">
+        <v>1.000003443586899</v>
+      </c>
+      <c r="O20">
+        <v>1.000003801315259</v>
+      </c>
+      <c r="P20">
+        <v>1.000001341438137</v>
+      </c>
+      <c r="Q20">
+        <v>1.000001341438137</v>
+      </c>
+      <c r="R20">
+        <v>1.000000290363757</v>
+      </c>
+      <c r="S20">
+        <v>1.000000290363757</v>
+      </c>
+      <c r="T20">
+        <v>1.000000318319552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999565484448533</v>
+      </c>
+      <c r="D21">
+        <v>1.000172314683491</v>
+      </c>
+      <c r="E21">
+        <v>0.9999575928523742</v>
+      </c>
+      <c r="F21">
+        <v>1.000172314683491</v>
+      </c>
+      <c r="G21">
+        <v>0.9999575928523742</v>
+      </c>
+      <c r="H21">
+        <v>0.999883933753003</v>
+      </c>
+      <c r="I21">
+        <v>1.000095015443496</v>
+      </c>
+      <c r="J21">
+        <v>0.9999568539160034</v>
+      </c>
+      <c r="K21">
+        <v>0.9999575928523742</v>
+      </c>
+      <c r="L21">
+        <v>0.9999565484448533</v>
+      </c>
+      <c r="M21">
+        <v>1.000064431564172</v>
+      </c>
+      <c r="N21">
+        <v>1.000064431564172</v>
+      </c>
+      <c r="O21">
+        <v>1.000074626190613</v>
+      </c>
+      <c r="P21">
+        <v>1.00002881866024</v>
+      </c>
+      <c r="Q21">
+        <v>1.00002881866024</v>
+      </c>
+      <c r="R21">
+        <v>1.000011012208273</v>
+      </c>
+      <c r="S21">
+        <v>1.000011012208273</v>
+      </c>
+      <c r="T21">
+        <v>1.00000370984887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9998482435396185</v>
+      </c>
+      <c r="D22">
+        <v>1.000609039630626</v>
+      </c>
+      <c r="E22">
+        <v>0.9998468388062062</v>
+      </c>
+      <c r="F22">
+        <v>1.000609039630626</v>
+      </c>
+      <c r="G22">
+        <v>0.9998468388062062</v>
+      </c>
+      <c r="H22">
+        <v>0.9995955785206447</v>
+      </c>
+      <c r="I22">
+        <v>1.000334647094415</v>
+      </c>
+      <c r="J22">
+        <v>0.9998478323357067</v>
+      </c>
+      <c r="K22">
+        <v>0.9998468388062062</v>
+      </c>
+      <c r="L22">
+        <v>0.9998482435396185</v>
+      </c>
+      <c r="M22">
+        <v>1.000228641585122</v>
+      </c>
+      <c r="N22">
+        <v>1.000228641585122</v>
+      </c>
+      <c r="O22">
+        <v>1.000263976754886</v>
+      </c>
+      <c r="P22">
+        <v>1.00010137399215</v>
+      </c>
+      <c r="Q22">
+        <v>1.00010137399215</v>
+      </c>
+      <c r="R22">
+        <v>1.000037740195664</v>
+      </c>
+      <c r="S22">
+        <v>1.000037740195664</v>
+      </c>
+      <c r="T22">
+        <v>1.000013696654536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9996450872022719</v>
+      </c>
+      <c r="D23">
+        <v>1.001427991190117</v>
+      </c>
+      <c r="E23">
         <v>0.9996392566565201</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>1.001427991190117</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9996392566565201</v>
+      </c>
+      <c r="H23">
+        <v>0.9990546828882355</v>
+      </c>
+      <c r="I23">
+        <v>1.000784040606523</v>
+      </c>
+      <c r="J23">
+        <v>0.9996433842722557</v>
+      </c>
+      <c r="K23">
+        <v>0.9996392566565201</v>
+      </c>
+      <c r="L23">
         <v>0.9996450872022719</v>
       </c>
-      <c r="F19">
-        <v>0.9996392566565201</v>
-      </c>
-      <c r="G19">
-        <v>0.9990546828882358</v>
-      </c>
-      <c r="H19">
-        <v>1.000784040606523</v>
-      </c>
-      <c r="I19">
-        <v>0.9996433842722557</v>
-      </c>
-      <c r="J19">
-        <v>1.001427991190117</v>
-      </c>
-      <c r="K19">
-        <v>0.9996392566565201</v>
-      </c>
-      <c r="L19">
-        <v>0.9996450872022719</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000536539196195</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000536539196195</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000619039666304</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000237445016303</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000237445016303</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000087897926357</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000087897926357</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000032407135987</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9995050687056324</v>
+        <v>0.9949976620749289</v>
       </c>
       <c r="D3">
-        <v>1.001974138940215</v>
+        <v>1.020058886930838</v>
       </c>
       <c r="E3">
-        <v>0.9995089791943357</v>
+        <v>0.9949629863832838</v>
       </c>
       <c r="F3">
-        <v>1.001974138940215</v>
+        <v>1.020058886930838</v>
       </c>
       <c r="G3">
-        <v>0.9995089791943357</v>
+        <v>0.9949629863832838</v>
       </c>
       <c r="H3">
-        <v>0.998679441927302</v>
+        <v>0.9866670408645514</v>
       </c>
       <c r="I3">
-        <v>1.001086681666614</v>
+        <v>1.011024362716139</v>
       </c>
       <c r="J3">
-        <v>0.9995062097700599</v>
+        <v>0.9949875531700276</v>
       </c>
       <c r="K3">
-        <v>0.9995089791943357</v>
+        <v>0.9949629863832838</v>
       </c>
       <c r="L3">
-        <v>0.9995050687056324</v>
+        <v>0.9949976620749289</v>
       </c>
       <c r="M3">
-        <v>1.000739603822923</v>
+        <v>1.007528274502884</v>
       </c>
       <c r="N3">
-        <v>1.000739603822923</v>
+        <v>1.007528274502884</v>
       </c>
       <c r="O3">
-        <v>1.000855296437487</v>
+        <v>1.008693637240635</v>
       </c>
       <c r="P3">
-        <v>1.000329395613394</v>
+        <v>1.003339845129684</v>
       </c>
       <c r="Q3">
-        <v>1.000329395613394</v>
+        <v>1.003339845129684</v>
       </c>
       <c r="R3">
-        <v>1.00012429150863</v>
+        <v>1.001245630443084</v>
       </c>
       <c r="S3">
-        <v>1.00012429150863</v>
+        <v>1.001245630443084</v>
       </c>
       <c r="T3">
-        <v>1.000043420034026</v>
+        <v>1.000449748689962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9990445177703934</v>
+        <v>0.995357912127287</v>
       </c>
       <c r="D4">
-        <v>1.003811004089877</v>
+        <v>1.018615255497575</v>
       </c>
       <c r="E4">
-        <v>0.9990521657258106</v>
+        <v>0.995325078485837</v>
       </c>
       <c r="F4">
-        <v>1.003811004089877</v>
+        <v>1.018615255497575</v>
       </c>
       <c r="G4">
-        <v>0.9990521657258106</v>
+        <v>0.995325078485837</v>
       </c>
       <c r="H4">
-        <v>0.9974505937605196</v>
+        <v>0.9876273566455485</v>
       </c>
       <c r="I4">
-        <v>1.002097821896416</v>
+        <v>1.010230792213939</v>
       </c>
       <c r="J4">
-        <v>0.9990467475825771</v>
+        <v>0.9953483403978752</v>
       </c>
       <c r="K4">
-        <v>0.9990521657258106</v>
+        <v>0.995325078485837</v>
       </c>
       <c r="L4">
-        <v>0.9990445177703934</v>
+        <v>0.995357912127287</v>
       </c>
       <c r="M4">
-        <v>1.001427760930135</v>
+        <v>1.006986583812431</v>
       </c>
       <c r="N4">
-        <v>1.001427760930135</v>
+        <v>1.006986583812431</v>
       </c>
       <c r="O4">
-        <v>1.001651114585562</v>
+        <v>1.008067986612933</v>
       </c>
       <c r="P4">
-        <v>1.000635895862027</v>
+        <v>1.003099415370233</v>
       </c>
       <c r="Q4">
-        <v>1.000635895862027</v>
+        <v>1.003099415370233</v>
       </c>
       <c r="R4">
-        <v>1.000239963327973</v>
+        <v>1.001155831149134</v>
       </c>
       <c r="S4">
-        <v>1.000239963327973</v>
+        <v>1.001155831149134</v>
       </c>
       <c r="T4">
-        <v>1.000083808470932</v>
+        <v>1.000417455894677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.998169162602943</v>
+        <v>0.9943162359029646</v>
       </c>
       <c r="D5">
-        <v>1.007303754946199</v>
+        <v>1.022789033369272</v>
       </c>
       <c r="E5">
-        <v>0.9981828813508146</v>
+        <v>0.9942784512129386</v>
       </c>
       <c r="F5">
-        <v>1.007303754946199</v>
+        <v>1.022789033369272</v>
       </c>
       <c r="G5">
-        <v>0.9981828813508146</v>
+        <v>0.9942784512129386</v>
       </c>
       <c r="H5">
-        <v>0.9951151586072533</v>
+        <v>0.9848504961455524</v>
       </c>
       <c r="I5">
-        <v>1.00402024402196</v>
+        <v>1.01252522374663</v>
       </c>
       <c r="J5">
-        <v>0.9981731589032151</v>
+        <v>0.9943052181671148</v>
       </c>
       <c r="K5">
-        <v>0.9981828813508146</v>
+        <v>0.9942784512129386</v>
       </c>
       <c r="L5">
-        <v>0.998169162602943</v>
+        <v>0.9943162359029646</v>
       </c>
       <c r="M5">
-        <v>1.002736458774571</v>
+        <v>1.008552634636118</v>
       </c>
       <c r="N5">
-        <v>1.002736458774571</v>
+        <v>1.008552634636118</v>
       </c>
       <c r="O5">
-        <v>1.003164387190367</v>
+        <v>1.009876831006289</v>
       </c>
       <c r="P5">
-        <v>1.001218599633319</v>
+        <v>1.003794573495058</v>
       </c>
       <c r="Q5">
-        <v>1.001218599633319</v>
+        <v>1.003794573495058</v>
       </c>
       <c r="R5">
-        <v>1.000459670062693</v>
+        <v>1.001415542924528</v>
       </c>
       <c r="S5">
-        <v>1.000459670062693</v>
+        <v>1.001415542924528</v>
       </c>
       <c r="T5">
-        <v>1.000160726738731</v>
+        <v>1.000510776424079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9973148471175791</v>
+        <v>0.9936832347727272</v>
       </c>
       <c r="D6">
-        <v>1.010712489876634</v>
+        <v>1.025324534147727</v>
       </c>
       <c r="E6">
-        <v>0.9973345171581478</v>
+        <v>0.9936430071022728</v>
       </c>
       <c r="F6">
-        <v>1.010712489876634</v>
+        <v>1.025324534147727</v>
       </c>
       <c r="G6">
-        <v>0.9973345171581478</v>
+        <v>0.9936430071022728</v>
       </c>
       <c r="H6">
-        <v>0.9928358624022283</v>
+        <v>0.9831629512500006</v>
       </c>
       <c r="I6">
-        <v>1.00589641675649</v>
+        <v>1.013919179375</v>
       </c>
       <c r="J6">
-        <v>0.9973205829757494</v>
+        <v>0.9936715032954556</v>
       </c>
       <c r="K6">
-        <v>0.9973345171581478</v>
+        <v>0.9936430071022728</v>
       </c>
       <c r="L6">
-        <v>0.9973148471175791</v>
+        <v>0.9936832347727272</v>
       </c>
       <c r="M6">
-        <v>1.004013668497107</v>
+        <v>1.009503884460227</v>
       </c>
       <c r="N6">
-        <v>1.004013668497107</v>
+        <v>1.009503884460227</v>
       </c>
       <c r="O6">
-        <v>1.004641251250235</v>
+        <v>1.010975649431818</v>
       </c>
       <c r="P6">
-        <v>1.001787284717454</v>
+        <v>1.004216925340909</v>
       </c>
       <c r="Q6">
-        <v>1.001787284717454</v>
+        <v>1.004216925340909</v>
       </c>
       <c r="R6">
-        <v>1.000674092827627</v>
+        <v>1.00157344578125</v>
       </c>
       <c r="S6">
-        <v>1.000674092827627</v>
+        <v>1.00157344578125</v>
       </c>
       <c r="T6">
-        <v>1.000235786047805</v>
+        <v>1.000567401657197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999968238490723</v>
+        <v>1.009344158882636</v>
       </c>
       <c r="D7">
-        <v>1.000127254257054</v>
+        <v>0.9626463191811884</v>
       </c>
       <c r="E7">
-        <v>0.9999680930491397</v>
+        <v>1.009328077843169</v>
       </c>
       <c r="F7">
-        <v>1.000127254257054</v>
+        <v>0.9626463191811884</v>
       </c>
       <c r="G7">
-        <v>0.9999680930491397</v>
+        <v>1.009328077843169</v>
       </c>
       <c r="H7">
-        <v>0.999915333972783</v>
+        <v>1.024920840381925</v>
       </c>
       <c r="I7">
-        <v>1.000069956659459</v>
+        <v>0.9794517572424234</v>
       </c>
       <c r="J7">
-        <v>0.999968197093725</v>
+        <v>1.009339464483346</v>
       </c>
       <c r="K7">
-        <v>0.9999680930491397</v>
+        <v>1.009328077843169</v>
       </c>
       <c r="L7">
-        <v>0.999968238490723</v>
+        <v>1.009344158882636</v>
       </c>
       <c r="M7">
-        <v>1.000047746373889</v>
+        <v>0.985995239031912</v>
       </c>
       <c r="N7">
-        <v>1.000047746373889</v>
+        <v>0.985995239031912</v>
       </c>
       <c r="O7">
-        <v>1.000055149802412</v>
+        <v>0.9838140784354158</v>
       </c>
       <c r="P7">
-        <v>1.000021195265639</v>
+        <v>0.9937728519689976</v>
       </c>
       <c r="Q7">
-        <v>1.000021195265639</v>
+        <v>0.9937728519689978</v>
       </c>
       <c r="R7">
-        <v>1.000007919711514</v>
+        <v>0.9976616584375405</v>
       </c>
       <c r="S7">
-        <v>1.000007919711514</v>
+        <v>0.9976616584375405</v>
       </c>
       <c r="T7">
-        <v>1.000002845587147</v>
+        <v>0.9991717696691147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999285719978939</v>
+        <v>1.009210368197925</v>
       </c>
       <c r="D8">
-        <v>1.00028575229939</v>
+        <v>0.9631798984689328</v>
       </c>
       <c r="E8">
-        <v>0.999928544456024</v>
+        <v>1.009195395637806</v>
       </c>
       <c r="F8">
-        <v>1.00028575229939</v>
+        <v>0.9631798984689328</v>
       </c>
       <c r="G8">
-        <v>0.999928544456024</v>
+        <v>1.009195395637806</v>
       </c>
       <c r="H8">
-        <v>0.9998095337126099</v>
+        <v>1.024563853974221</v>
       </c>
       <c r="I8">
-        <v>1.000157157804681</v>
+        <v>0.9797454824664167</v>
       </c>
       <c r="J8">
-        <v>0.9999285646702367</v>
+        <v>1.009205996931287</v>
       </c>
       <c r="K8">
-        <v>0.999928544456024</v>
+        <v>1.009195395637806</v>
       </c>
       <c r="L8">
-        <v>0.9999285719978939</v>
+        <v>1.009210368197925</v>
       </c>
       <c r="M8">
-        <v>1.000107162148642</v>
+        <v>0.9861951333334289</v>
       </c>
       <c r="N8">
-        <v>1.000107162148642</v>
+        <v>0.9861951333334289</v>
       </c>
       <c r="O8">
-        <v>1.000123827367321</v>
+        <v>0.9840452497110915</v>
       </c>
       <c r="P8">
-        <v>1.000047622917769</v>
+        <v>0.993861887434888</v>
       </c>
       <c r="Q8">
-        <v>1.000047622917769</v>
+        <v>0.993861887434888</v>
       </c>
       <c r="R8">
-        <v>1.000017853302333</v>
+        <v>0.9976952644856175</v>
       </c>
       <c r="S8">
-        <v>1.000017853302333</v>
+        <v>0.9976952644856175</v>
       </c>
       <c r="T8">
-        <v>1.000006354156806</v>
+        <v>0.9991834992794315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999049373744728</v>
+        <v>1.009083719823486</v>
       </c>
       <c r="D9">
-        <v>1.000379257348897</v>
+        <v>0.9636883043125059</v>
       </c>
       <c r="E9">
-        <v>0.999905632835272</v>
+        <v>1.009067478623214</v>
       </c>
       <c r="F9">
-        <v>1.000379257348897</v>
+        <v>0.9636883043125059</v>
       </c>
       <c r="G9">
-        <v>0.999905632835272</v>
+        <v>1.009067478623214</v>
       </c>
       <c r="H9">
-        <v>0.9997463698269369</v>
+        <v>1.02422636659502</v>
       </c>
       <c r="I9">
-        <v>1.000208753503142</v>
+        <v>0.9800248119864893</v>
       </c>
       <c r="J9">
-        <v>0.9999051406293841</v>
+        <v>1.009078978690308</v>
       </c>
       <c r="K9">
-        <v>0.999905632835272</v>
+        <v>1.009067478623214</v>
       </c>
       <c r="L9">
-        <v>0.9999049373744728</v>
+        <v>1.009083719823486</v>
       </c>
       <c r="M9">
-        <v>1.000142097361685</v>
+        <v>0.9863860120679957</v>
       </c>
       <c r="N9">
-        <v>1.000142097361685</v>
+        <v>0.9863860120679957</v>
       </c>
       <c r="O9">
-        <v>1.000164316075504</v>
+        <v>0.984265612040827</v>
       </c>
       <c r="P9">
-        <v>1.000063275852881</v>
+        <v>0.9939465009197351</v>
       </c>
       <c r="Q9">
-        <v>1.000063275852881</v>
+        <v>0.9939465009197351</v>
       </c>
       <c r="R9">
-        <v>1.000023865098479</v>
+        <v>0.9977267453456048</v>
       </c>
       <c r="S9">
-        <v>1.000023865098479</v>
+        <v>0.9977267453456048</v>
       </c>
       <c r="T9">
-        <v>1.000008348586351</v>
+        <v>0.9991949433385039</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9997900146754395</v>
+        <v>1.008900507881349</v>
       </c>
       <c r="D10">
-        <v>1.000839106437341</v>
+        <v>0.9644090179690605</v>
       </c>
       <c r="E10">
-        <v>0.9997906000417703</v>
+        <v>1.00889276082367</v>
       </c>
       <c r="F10">
-        <v>1.000839106437341</v>
+        <v>0.9644090179690605</v>
       </c>
       <c r="G10">
-        <v>0.9997906000417703</v>
+        <v>1.00889276082367</v>
       </c>
       <c r="H10">
-        <v>0.9994399286414379</v>
+        <v>1.023736183200248</v>
       </c>
       <c r="I10">
-        <v>1.000461643950858</v>
+        <v>0.9804231701769018</v>
       </c>
       <c r="J10">
-        <v>0.9997901865837786</v>
+        <v>1.008898242931944</v>
       </c>
       <c r="K10">
-        <v>0.9997906000417703</v>
+        <v>1.00889276082367</v>
       </c>
       <c r="L10">
-        <v>0.9997900146754395</v>
+        <v>1.008900507881349</v>
       </c>
       <c r="M10">
-        <v>1.00031456055639</v>
+        <v>0.9866547629252047</v>
       </c>
       <c r="N10">
-        <v>1.00031456055639</v>
+        <v>0.9866547629252047</v>
       </c>
       <c r="O10">
-        <v>1.000363588354546</v>
+        <v>0.9845775653424371</v>
       </c>
       <c r="P10">
-        <v>1.000139907051517</v>
+        <v>0.99406742889136</v>
       </c>
       <c r="Q10">
-        <v>1.000139907051517</v>
+        <v>0.99406742889136</v>
       </c>
       <c r="R10">
-        <v>1.00005258029908</v>
+        <v>0.9977737618744376</v>
       </c>
       <c r="S10">
-        <v>1.00005258029908</v>
+        <v>0.9977737618744376</v>
       </c>
       <c r="T10">
-        <v>1.000018580055104</v>
+        <v>0.9992099804971956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9996676153769876</v>
+        <v>0.9995066336133799</v>
       </c>
       <c r="D11">
-        <v>1.001324736609869</v>
+        <v>1.001965169718086</v>
       </c>
       <c r="E11">
-        <v>0.9996709748725832</v>
+        <v>0.9995124412818406</v>
       </c>
       <c r="F11">
-        <v>1.001324736609869</v>
+        <v>1.001965169718086</v>
       </c>
       <c r="G11">
-        <v>0.9996709748725832</v>
+        <v>0.9995124412818406</v>
       </c>
       <c r="H11">
-        <v>0.999113005494895</v>
+        <v>0.9986832532268719</v>
       </c>
       <c r="I11">
-        <v>1.000729384138211</v>
+        <v>1.001082188924882</v>
       </c>
       <c r="J11">
-        <v>0.9996685970698705</v>
+        <v>0.9995083272848116</v>
       </c>
       <c r="K11">
-        <v>0.9996709748725832</v>
+        <v>0.9995124412818406</v>
       </c>
       <c r="L11">
-        <v>0.9996676153769876</v>
+        <v>0.9995066336133799</v>
       </c>
       <c r="M11">
-        <v>1.000496175993428</v>
+        <v>1.000735901665733</v>
       </c>
       <c r="N11">
-        <v>1.000496175993428</v>
+        <v>1.000735901665733</v>
       </c>
       <c r="O11">
-        <v>1.000573912041689</v>
+        <v>1.000851330752116</v>
       </c>
       <c r="P11">
-        <v>1.000221108953147</v>
+        <v>1.000328081537769</v>
       </c>
       <c r="Q11">
-        <v>1.000221108953147</v>
+        <v>1.000328081537769</v>
       </c>
       <c r="R11">
-        <v>1.000083575433006</v>
+        <v>1.000124171473787</v>
       </c>
       <c r="S11">
-        <v>1.000083575433006</v>
+        <v>1.000124171473787</v>
       </c>
       <c r="T11">
-        <v>1.000029052260403</v>
+        <v>1.000043002341645</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001628178870439</v>
+        <v>0.9998081910077969</v>
       </c>
       <c r="D12">
-        <v>0.9930606403511493</v>
+        <v>1.000765060088611</v>
       </c>
       <c r="E12">
-        <v>1.001926814300016</v>
+        <v>0.9998097139870754</v>
       </c>
       <c r="F12">
-        <v>0.9930606403511493</v>
+        <v>1.000765060088611</v>
       </c>
       <c r="G12">
-        <v>1.001926814300016</v>
+        <v>0.9998097139870754</v>
       </c>
       <c r="H12">
-        <v>1.004284944662976</v>
+        <v>0.999488223155376</v>
       </c>
       <c r="I12">
-        <v>0.9962524615799423</v>
+        <v>1.000421136029159</v>
       </c>
       <c r="J12">
-        <v>1.001715254269505</v>
+        <v>0.9998086360278005</v>
       </c>
       <c r="K12">
-        <v>1.001926814300016</v>
+        <v>0.9998097139870754</v>
       </c>
       <c r="L12">
-        <v>1.001628178870439</v>
+        <v>0.9998081910077969</v>
       </c>
       <c r="M12">
-        <v>0.997344409610794</v>
+        <v>1.000286625548204</v>
       </c>
       <c r="N12">
-        <v>0.997344409610794</v>
+        <v>1.000286625548204</v>
       </c>
       <c r="O12">
-        <v>0.9969804269338435</v>
+        <v>1.000331462375189</v>
       </c>
       <c r="P12">
-        <v>0.9988718778405344</v>
+        <v>1.000127655027828</v>
       </c>
       <c r="Q12">
-        <v>0.9988718778405344</v>
+        <v>1.000127655027828</v>
       </c>
       <c r="R12">
-        <v>0.9996356119554047</v>
+        <v>1.00004816976764</v>
       </c>
       <c r="S12">
-        <v>0.9996356119554047</v>
+        <v>1.00004816976764</v>
       </c>
       <c r="T12">
-        <v>0.9998113823390044</v>
+        <v>1.00001682671597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000463792942587</v>
+        <v>0.9993934660545104</v>
       </c>
       <c r="D13">
-        <v>0.9983240710954566</v>
+        <v>1.002418235252259</v>
       </c>
       <c r="E13">
-        <v>1.000338328286865</v>
+        <v>0.9993989983444344</v>
       </c>
       <c r="F13">
-        <v>0.9983240710954566</v>
+        <v>1.002418235252259</v>
       </c>
       <c r="G13">
-        <v>1.000338328286865</v>
+        <v>0.9993989983444344</v>
       </c>
       <c r="H13">
-        <v>1.001260677753924</v>
+        <v>0.9983815300076196</v>
       </c>
       <c r="I13">
-        <v>0.9990492061484643</v>
+        <v>1.001331313080682</v>
       </c>
       <c r="J13">
-        <v>1.000427214557603</v>
+        <v>0.999395077546572</v>
       </c>
       <c r="K13">
-        <v>1.000338328286865</v>
+        <v>0.9993989983444344</v>
       </c>
       <c r="L13">
-        <v>1.000463792942587</v>
+        <v>0.9993934660545104</v>
       </c>
       <c r="M13">
-        <v>0.999393932019022</v>
+        <v>1.000905850653385</v>
       </c>
       <c r="N13">
-        <v>0.999393932019022</v>
+        <v>1.000905850653385</v>
       </c>
       <c r="O13">
-        <v>0.9992790233955028</v>
+        <v>1.001047671462484</v>
       </c>
       <c r="P13">
-        <v>0.9997087307749696</v>
+        <v>1.000403566550401</v>
       </c>
       <c r="Q13">
-        <v>0.9997087307749696</v>
+        <v>1.000403566550401</v>
       </c>
       <c r="R13">
-        <v>0.9998661301529435</v>
+        <v>1.00015242449891</v>
       </c>
       <c r="S13">
-        <v>0.9998661301529435</v>
+        <v>1.00015242449891</v>
       </c>
       <c r="T13">
-        <v>0.9999772151308166</v>
+        <v>1.000053103381013</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.002724931667661</v>
+        <v>0.9986243729419145</v>
       </c>
       <c r="D14">
-        <v>0.9897079552393377</v>
+        <v>1.005488430086915</v>
       </c>
       <c r="E14">
-        <v>1.00229955870053</v>
+        <v>0.9986342303257003</v>
       </c>
       <c r="F14">
-        <v>0.9897079552393377</v>
+        <v>1.005488430086915</v>
       </c>
       <c r="G14">
-        <v>1.00229955870053</v>
+        <v>0.9986342303257003</v>
       </c>
       <c r="H14">
-        <v>1.007347508454681</v>
+        <v>0.996329775760167</v>
       </c>
       <c r="I14">
-        <v>0.9942409311711703</v>
+        <v>1.00302092148457</v>
       </c>
       <c r="J14">
-        <v>1.002600916710594</v>
+        <v>0.9986272457693361</v>
       </c>
       <c r="K14">
-        <v>1.00229955870053</v>
+        <v>0.9986342303257003</v>
       </c>
       <c r="L14">
-        <v>1.002724931667661</v>
+        <v>0.9986243729419145</v>
       </c>
       <c r="M14">
-        <v>0.9962164434534996</v>
+        <v>1.002056401514415</v>
       </c>
       <c r="N14">
-        <v>0.9962164434534996</v>
+        <v>1.002056401514415</v>
       </c>
       <c r="O14">
-        <v>0.9955579393593897</v>
+        <v>1.002377908171133</v>
       </c>
       <c r="P14">
-        <v>0.9982441485358432</v>
+        <v>1.000915677784843</v>
       </c>
       <c r="Q14">
-        <v>0.9982441485358432</v>
+        <v>1.000915677784843</v>
       </c>
       <c r="R14">
-        <v>0.9992580010770149</v>
+        <v>1.000345315920057</v>
       </c>
       <c r="S14">
-        <v>0.9992580010770149</v>
+        <v>1.000345315920057</v>
       </c>
       <c r="T14">
-        <v>0.9998203003239957</v>
+        <v>1.000120829394767</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000606737637396</v>
+        <v>0.9995050687056324</v>
       </c>
       <c r="D15">
-        <v>0.9973229015443735</v>
+        <v>1.001974138940215</v>
       </c>
       <c r="E15">
-        <v>1.00078182513898</v>
+        <v>0.9995089791943357</v>
       </c>
       <c r="F15">
-        <v>0.9973229015443735</v>
+        <v>1.001974138940215</v>
       </c>
       <c r="G15">
-        <v>1.00078182513898</v>
+        <v>0.9995089791943357</v>
       </c>
       <c r="H15">
-        <v>1.001584642071828</v>
+        <v>0.998679441927302</v>
       </c>
       <c r="I15">
-        <v>0.9985681129572284</v>
+        <v>1.001086681666614</v>
       </c>
       <c r="J15">
-        <v>1.00065779050995</v>
+        <v>0.9995062097700599</v>
       </c>
       <c r="K15">
-        <v>1.00078182513898</v>
+        <v>0.9995089791943357</v>
       </c>
       <c r="L15">
-        <v>1.000606737637396</v>
+        <v>0.9995050687056324</v>
       </c>
       <c r="M15">
-        <v>0.9989648195908847</v>
+        <v>1.000739603822923</v>
       </c>
       <c r="N15">
-        <v>0.9989648195908847</v>
+        <v>1.000739603822923</v>
       </c>
       <c r="O15">
-        <v>0.9988325840463327</v>
+        <v>1.000855296437487</v>
       </c>
       <c r="P15">
-        <v>0.9995704881069165</v>
+        <v>1.000329395613394</v>
       </c>
       <c r="Q15">
-        <v>0.9995704881069164</v>
+        <v>1.000329395613394</v>
       </c>
       <c r="R15">
-        <v>0.9998733223649323</v>
+        <v>1.00012429150863</v>
       </c>
       <c r="S15">
-        <v>0.9998733223649323</v>
+        <v>1.00012429150863</v>
       </c>
       <c r="T15">
-        <v>0.9999203349766259</v>
+        <v>1.000043420034026</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9903509073044839</v>
+        <v>0.9990445177703934</v>
       </c>
       <c r="D16">
-        <v>1.038501574190725</v>
+        <v>1.003811004089877</v>
       </c>
       <c r="E16">
-        <v>0.9904172594852118</v>
+        <v>0.9990521657258106</v>
       </c>
       <c r="F16">
-        <v>1.038501574190725</v>
+        <v>1.003811004089877</v>
       </c>
       <c r="G16">
-        <v>0.9904172594852118</v>
+        <v>0.9990521657258106</v>
       </c>
       <c r="H16">
-        <v>0.9742564560791315</v>
+        <v>0.9974505937605196</v>
       </c>
       <c r="I16">
-        <v>1.021191219788074</v>
+        <v>1.002097821896416</v>
       </c>
       <c r="J16">
-        <v>0.9903702525280895</v>
+        <v>0.9990467475825771</v>
       </c>
       <c r="K16">
-        <v>0.9904172594852118</v>
+        <v>0.9990521657258106</v>
       </c>
       <c r="L16">
-        <v>0.9903509073044839</v>
+        <v>0.9990445177703934</v>
       </c>
       <c r="M16">
-        <v>1.014426240747605</v>
+        <v>1.001427760930135</v>
       </c>
       <c r="N16">
-        <v>1.014426240747605</v>
+        <v>1.001427760930135</v>
       </c>
       <c r="O16">
-        <v>1.016681233761094</v>
+        <v>1.001651114585562</v>
       </c>
       <c r="P16">
-        <v>1.006423246993474</v>
+        <v>1.000635895862027</v>
       </c>
       <c r="Q16">
-        <v>1.006423246993474</v>
+        <v>1.000635895862027</v>
       </c>
       <c r="R16">
-        <v>1.002421750116408</v>
+        <v>1.000239963327973</v>
       </c>
       <c r="S16">
-        <v>1.002421750116408</v>
+        <v>1.000239963327973</v>
       </c>
       <c r="T16">
-        <v>1.000847944895953</v>
+        <v>1.000083808470932</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99211599716858</v>
+        <v>0.998169162602943</v>
       </c>
       <c r="D17">
-        <v>1.031487071664842</v>
+        <v>1.007303754946199</v>
       </c>
       <c r="E17">
-        <v>0.9921502510957574</v>
+        <v>0.9981828813508146</v>
       </c>
       <c r="F17">
-        <v>1.031487071664842</v>
+        <v>1.007303754946199</v>
       </c>
       <c r="G17">
-        <v>0.9921502510957574</v>
+        <v>0.9981828813508146</v>
       </c>
       <c r="H17">
-        <v>0.9789694746705115</v>
+        <v>0.9951151586072533</v>
       </c>
       <c r="I17">
-        <v>1.017325815791424</v>
+        <v>1.00402024402196</v>
       </c>
       <c r="J17">
-        <v>0.99212598439397</v>
+        <v>0.9981731589032151</v>
       </c>
       <c r="K17">
-        <v>0.9921502510957574</v>
+        <v>0.9981828813508146</v>
       </c>
       <c r="L17">
-        <v>0.99211599716858</v>
+        <v>0.998169162602943</v>
       </c>
       <c r="M17">
-        <v>1.011801534416711</v>
+        <v>1.002736458774571</v>
       </c>
       <c r="N17">
-        <v>1.011801534416711</v>
+        <v>1.002736458774571</v>
       </c>
       <c r="O17">
-        <v>1.013642961541615</v>
+        <v>1.003164387190367</v>
       </c>
       <c r="P17">
-        <v>1.00525110664306</v>
+        <v>1.001218599633319</v>
       </c>
       <c r="Q17">
-        <v>1.00525110664306</v>
+        <v>1.001218599633319</v>
       </c>
       <c r="R17">
-        <v>1.001975892756234</v>
+        <v>1.000459670062693</v>
       </c>
       <c r="S17">
-        <v>1.001975892756234</v>
+        <v>1.000459670062693</v>
       </c>
       <c r="T17">
-        <v>1.000695765797514</v>
+        <v>1.000160726738731</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9956780518044105</v>
+        <v>0.9973148471175791</v>
       </c>
       <c r="D18">
-        <v>1.017328676008452</v>
+        <v>1.010712489876634</v>
       </c>
       <c r="E18">
-        <v>0.9956494357383376</v>
+        <v>0.9973345171581478</v>
       </c>
       <c r="F18">
-        <v>1.017328676008452</v>
+        <v>1.010712489876634</v>
       </c>
       <c r="G18">
-        <v>0.9956494357383376</v>
+        <v>0.9973345171581478</v>
       </c>
       <c r="H18">
-        <v>0.9884802527515555</v>
+        <v>0.9928358624022283</v>
       </c>
       <c r="I18">
-        <v>1.009524150874993</v>
+        <v>1.00589641675649</v>
       </c>
       <c r="J18">
-        <v>0.9956697080117675</v>
+        <v>0.9973205829757494</v>
       </c>
       <c r="K18">
-        <v>0.9956494357383376</v>
+        <v>0.9973345171581478</v>
       </c>
       <c r="L18">
-        <v>0.9956780518044105</v>
+        <v>0.9973148471175791</v>
       </c>
       <c r="M18">
-        <v>1.006503363906431</v>
+        <v>1.004013668497107</v>
       </c>
       <c r="N18">
-        <v>1.006503363906431</v>
+        <v>1.004013668497107</v>
       </c>
       <c r="O18">
-        <v>1.007510292895952</v>
+        <v>1.004641251250235</v>
       </c>
       <c r="P18">
-        <v>1.0028853878504</v>
+        <v>1.001787284717454</v>
       </c>
       <c r="Q18">
-        <v>1.0028853878504</v>
+        <v>1.001787284717454</v>
       </c>
       <c r="R18">
-        <v>1.001076399822384</v>
+        <v>1.000674092827627</v>
       </c>
       <c r="S18">
-        <v>1.001076399822384</v>
+        <v>1.000674092827627</v>
       </c>
       <c r="T18">
-        <v>1.000388379198253</v>
+        <v>1.000235786047805</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9953072836834721</v>
+        <v>0.999968238490723</v>
       </c>
       <c r="D19">
-        <v>1.018836570298831</v>
+        <v>1.000127254257054</v>
       </c>
       <c r="E19">
-        <v>0.995261293062637</v>
+        <v>0.9999680930491397</v>
       </c>
       <c r="F19">
-        <v>1.018836570298831</v>
+        <v>1.000127254257054</v>
       </c>
       <c r="G19">
-        <v>0.995261293062637</v>
+        <v>0.9999680930491397</v>
       </c>
       <c r="H19">
-        <v>0.9874948513908497</v>
+        <v>0.999915333972783</v>
       </c>
       <c r="I19">
-        <v>1.010349471875714</v>
+        <v>1.000069956659459</v>
       </c>
       <c r="J19">
-        <v>0.9952938737281763</v>
+        <v>0.999968197093725</v>
       </c>
       <c r="K19">
-        <v>0.995261293062637</v>
+        <v>0.9999680930491397</v>
       </c>
       <c r="L19">
-        <v>0.9953072836834721</v>
+        <v>0.999968238490723</v>
       </c>
       <c r="M19">
-        <v>1.007071926991151</v>
+        <v>1.000047746373889</v>
       </c>
       <c r="N19">
-        <v>1.007071926991151</v>
+        <v>1.000047746373889</v>
       </c>
       <c r="O19">
-        <v>1.008164441952672</v>
+        <v>1.000055149802412</v>
       </c>
       <c r="P19">
-        <v>1.00313504901498</v>
+        <v>1.000021195265639</v>
       </c>
       <c r="Q19">
-        <v>1.00313504901498</v>
+        <v>1.000021195265639</v>
       </c>
       <c r="R19">
-        <v>1.001166610026894</v>
+        <v>1.000007919711514</v>
       </c>
       <c r="S19">
-        <v>1.001166610026894</v>
+        <v>1.000007919711514</v>
       </c>
       <c r="T19">
-        <v>1.00042389067328</v>
+        <v>1.000002845587147</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999982201373447</v>
+        <v>0.9999285719978939</v>
       </c>
       <c r="D20">
-        <v>1.000008667036453</v>
+        <v>1.00028575229939</v>
       </c>
       <c r="E20">
-        <v>0.999997137140615</v>
+        <v>0.999928544456024</v>
       </c>
       <c r="F20">
-        <v>1.000008667036453</v>
+        <v>1.00028575229939</v>
       </c>
       <c r="G20">
-        <v>0.999997137140615</v>
+        <v>0.999928544456024</v>
       </c>
       <c r="H20">
-        <v>0.9999954634901617</v>
+        <v>0.9998095337126099</v>
       </c>
       <c r="I20">
-        <v>1.00000451677198</v>
+        <v>1.000157157804681</v>
       </c>
       <c r="J20">
-        <v>0.9999979053407558</v>
+        <v>0.9999285646702367</v>
       </c>
       <c r="K20">
-        <v>0.999997137140615</v>
+        <v>0.999928544456024</v>
       </c>
       <c r="L20">
-        <v>0.9999982201373447</v>
+        <v>0.9999285719978939</v>
       </c>
       <c r="M20">
-        <v>1.000003443586899</v>
+        <v>1.000107162148642</v>
       </c>
       <c r="N20">
-        <v>1.000003443586899</v>
+        <v>1.000107162148642</v>
       </c>
       <c r="O20">
-        <v>1.000003801315259</v>
+        <v>1.000123827367321</v>
       </c>
       <c r="P20">
-        <v>1.000001341438137</v>
+        <v>1.000047622917769</v>
       </c>
       <c r="Q20">
-        <v>1.000001341438137</v>
+        <v>1.000047622917769</v>
       </c>
       <c r="R20">
-        <v>1.000000290363757</v>
+        <v>1.000017853302333</v>
       </c>
       <c r="S20">
-        <v>1.000000290363757</v>
+        <v>1.000017853302333</v>
       </c>
       <c r="T20">
-        <v>1.000000318319552</v>
+        <v>1.000006354156806</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999565484448533</v>
+        <v>0.9999049373744728</v>
       </c>
       <c r="D21">
-        <v>1.000172314683491</v>
+        <v>1.000379257348897</v>
       </c>
       <c r="E21">
-        <v>0.9999575928523742</v>
+        <v>0.999905632835272</v>
       </c>
       <c r="F21">
-        <v>1.000172314683491</v>
+        <v>1.000379257348897</v>
       </c>
       <c r="G21">
-        <v>0.9999575928523742</v>
+        <v>0.999905632835272</v>
       </c>
       <c r="H21">
-        <v>0.999883933753003</v>
+        <v>0.9997463698269369</v>
       </c>
       <c r="I21">
-        <v>1.000095015443496</v>
+        <v>1.000208753503142</v>
       </c>
       <c r="J21">
-        <v>0.9999568539160034</v>
+        <v>0.9999051406293841</v>
       </c>
       <c r="K21">
-        <v>0.9999575928523742</v>
+        <v>0.999905632835272</v>
       </c>
       <c r="L21">
-        <v>0.9999565484448533</v>
+        <v>0.9999049373744728</v>
       </c>
       <c r="M21">
-        <v>1.000064431564172</v>
+        <v>1.000142097361685</v>
       </c>
       <c r="N21">
-        <v>1.000064431564172</v>
+        <v>1.000142097361685</v>
       </c>
       <c r="O21">
-        <v>1.000074626190613</v>
+        <v>1.000164316075504</v>
       </c>
       <c r="P21">
-        <v>1.00002881866024</v>
+        <v>1.000063275852881</v>
       </c>
       <c r="Q21">
-        <v>1.00002881866024</v>
+        <v>1.000063275852881</v>
       </c>
       <c r="R21">
-        <v>1.000011012208273</v>
+        <v>1.000023865098479</v>
       </c>
       <c r="S21">
-        <v>1.000011012208273</v>
+        <v>1.000023865098479</v>
       </c>
       <c r="T21">
-        <v>1.00000370984887</v>
+        <v>1.000008348586351</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9998482435396185</v>
+        <v>0.9997900146754395</v>
       </c>
       <c r="D22">
-        <v>1.000609039630626</v>
+        <v>1.000839106437341</v>
       </c>
       <c r="E22">
-        <v>0.9998468388062062</v>
+        <v>0.9997906000417703</v>
       </c>
       <c r="F22">
-        <v>1.000609039630626</v>
+        <v>1.000839106437341</v>
       </c>
       <c r="G22">
-        <v>0.9998468388062062</v>
+        <v>0.9997906000417703</v>
       </c>
       <c r="H22">
-        <v>0.9995955785206447</v>
+        <v>0.9994399286414379</v>
       </c>
       <c r="I22">
-        <v>1.000334647094415</v>
+        <v>1.000461643950858</v>
       </c>
       <c r="J22">
-        <v>0.9998478323357067</v>
+        <v>0.9997901865837786</v>
       </c>
       <c r="K22">
-        <v>0.9998468388062062</v>
+        <v>0.9997906000417703</v>
       </c>
       <c r="L22">
-        <v>0.9998482435396185</v>
+        <v>0.9997900146754395</v>
       </c>
       <c r="M22">
-        <v>1.000228641585122</v>
+        <v>1.00031456055639</v>
       </c>
       <c r="N22">
-        <v>1.000228641585122</v>
+        <v>1.00031456055639</v>
       </c>
       <c r="O22">
-        <v>1.000263976754886</v>
+        <v>1.000363588354546</v>
       </c>
       <c r="P22">
-        <v>1.00010137399215</v>
+        <v>1.000139907051517</v>
       </c>
       <c r="Q22">
-        <v>1.00010137399215</v>
+        <v>1.000139907051517</v>
       </c>
       <c r="R22">
-        <v>1.000037740195664</v>
+        <v>1.00005258029908</v>
       </c>
       <c r="S22">
-        <v>1.000037740195664</v>
+        <v>1.00005258029908</v>
       </c>
       <c r="T22">
-        <v>1.000013696654536</v>
+        <v>1.000018580055104</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9996676153769876</v>
+      </c>
+      <c r="D23">
+        <v>1.001324736609869</v>
+      </c>
+      <c r="E23">
+        <v>0.9996709748725832</v>
+      </c>
+      <c r="F23">
+        <v>1.001324736609869</v>
+      </c>
+      <c r="G23">
+        <v>0.9996709748725832</v>
+      </c>
+      <c r="H23">
+        <v>0.999113005494895</v>
+      </c>
+      <c r="I23">
+        <v>1.000729384138211</v>
+      </c>
+      <c r="J23">
+        <v>0.9996685970698705</v>
+      </c>
+      <c r="K23">
+        <v>0.9996709748725832</v>
+      </c>
+      <c r="L23">
+        <v>0.9996676153769876</v>
+      </c>
+      <c r="M23">
+        <v>1.000496175993428</v>
+      </c>
+      <c r="N23">
+        <v>1.000496175993428</v>
+      </c>
+      <c r="O23">
+        <v>1.000573912041689</v>
+      </c>
+      <c r="P23">
+        <v>1.000221108953147</v>
+      </c>
+      <c r="Q23">
+        <v>1.000221108953147</v>
+      </c>
+      <c r="R23">
+        <v>1.000083575433006</v>
+      </c>
+      <c r="S23">
+        <v>1.000083575433006</v>
+      </c>
+      <c r="T23">
+        <v>1.000029052260403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.001628178870439</v>
+      </c>
+      <c r="D24">
+        <v>0.9930606403511493</v>
+      </c>
+      <c r="E24">
+        <v>1.001926814300016</v>
+      </c>
+      <c r="F24">
+        <v>0.9930606403511493</v>
+      </c>
+      <c r="G24">
+        <v>1.001926814300016</v>
+      </c>
+      <c r="H24">
+        <v>1.004284944662976</v>
+      </c>
+      <c r="I24">
+        <v>0.9962524615799423</v>
+      </c>
+      <c r="J24">
+        <v>1.001715254269505</v>
+      </c>
+      <c r="K24">
+        <v>1.001926814300016</v>
+      </c>
+      <c r="L24">
+        <v>1.001628178870439</v>
+      </c>
+      <c r="M24">
+        <v>0.997344409610794</v>
+      </c>
+      <c r="N24">
+        <v>0.997344409610794</v>
+      </c>
+      <c r="O24">
+        <v>0.9969804269338435</v>
+      </c>
+      <c r="P24">
+        <v>0.9988718778405344</v>
+      </c>
+      <c r="Q24">
+        <v>0.9988718778405344</v>
+      </c>
+      <c r="R24">
+        <v>0.9996356119554047</v>
+      </c>
+      <c r="S24">
+        <v>0.9996356119554047</v>
+      </c>
+      <c r="T24">
+        <v>0.9998113823390044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000463792942587</v>
+      </c>
+      <c r="D25">
+        <v>0.9983240710954566</v>
+      </c>
+      <c r="E25">
+        <v>1.000338328286865</v>
+      </c>
+      <c r="F25">
+        <v>0.9983240710954566</v>
+      </c>
+      <c r="G25">
+        <v>1.000338328286865</v>
+      </c>
+      <c r="H25">
+        <v>1.001260677753924</v>
+      </c>
+      <c r="I25">
+        <v>0.9990492061484643</v>
+      </c>
+      <c r="J25">
+        <v>1.000427214557603</v>
+      </c>
+      <c r="K25">
+        <v>1.000338328286865</v>
+      </c>
+      <c r="L25">
+        <v>1.000463792942587</v>
+      </c>
+      <c r="M25">
+        <v>0.999393932019022</v>
+      </c>
+      <c r="N25">
+        <v>0.999393932019022</v>
+      </c>
+      <c r="O25">
+        <v>0.9992790233955028</v>
+      </c>
+      <c r="P25">
+        <v>0.9997087307749696</v>
+      </c>
+      <c r="Q25">
+        <v>0.9997087307749696</v>
+      </c>
+      <c r="R25">
+        <v>0.9998661301529435</v>
+      </c>
+      <c r="S25">
+        <v>0.9998661301529435</v>
+      </c>
+      <c r="T25">
+        <v>0.9999772151308166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.002724931667661</v>
+      </c>
+      <c r="D26">
+        <v>0.9897079552393377</v>
+      </c>
+      <c r="E26">
+        <v>1.00229955870053</v>
+      </c>
+      <c r="F26">
+        <v>0.9897079552393377</v>
+      </c>
+      <c r="G26">
+        <v>1.00229955870053</v>
+      </c>
+      <c r="H26">
+        <v>1.007347508454681</v>
+      </c>
+      <c r="I26">
+        <v>0.9942409311711703</v>
+      </c>
+      <c r="J26">
+        <v>1.002600916710594</v>
+      </c>
+      <c r="K26">
+        <v>1.00229955870053</v>
+      </c>
+      <c r="L26">
+        <v>1.002724931667661</v>
+      </c>
+      <c r="M26">
+        <v>0.9962164434534996</v>
+      </c>
+      <c r="N26">
+        <v>0.9962164434534996</v>
+      </c>
+      <c r="O26">
+        <v>0.9955579393593897</v>
+      </c>
+      <c r="P26">
+        <v>0.9982441485358432</v>
+      </c>
+      <c r="Q26">
+        <v>0.9982441485358432</v>
+      </c>
+      <c r="R26">
+        <v>0.9992580010770149</v>
+      </c>
+      <c r="S26">
+        <v>0.9992580010770149</v>
+      </c>
+      <c r="T26">
+        <v>0.9998203003239957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000606737637396</v>
+      </c>
+      <c r="D27">
+        <v>0.9973229015443735</v>
+      </c>
+      <c r="E27">
+        <v>1.00078182513898</v>
+      </c>
+      <c r="F27">
+        <v>0.9973229015443735</v>
+      </c>
+      <c r="G27">
+        <v>1.00078182513898</v>
+      </c>
+      <c r="H27">
+        <v>1.001584642071828</v>
+      </c>
+      <c r="I27">
+        <v>0.9985681129572284</v>
+      </c>
+      <c r="J27">
+        <v>1.00065779050995</v>
+      </c>
+      <c r="K27">
+        <v>1.00078182513898</v>
+      </c>
+      <c r="L27">
+        <v>1.000606737637396</v>
+      </c>
+      <c r="M27">
+        <v>0.9989648195908847</v>
+      </c>
+      <c r="N27">
+        <v>0.9989648195908847</v>
+      </c>
+      <c r="O27">
+        <v>0.9988325840463327</v>
+      </c>
+      <c r="P27">
+        <v>0.9995704881069165</v>
+      </c>
+      <c r="Q27">
+        <v>0.9995704881069164</v>
+      </c>
+      <c r="R27">
+        <v>0.9998733223649323</v>
+      </c>
+      <c r="S27">
+        <v>0.9998733223649323</v>
+      </c>
+      <c r="T27">
+        <v>0.9999203349766259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9903509073044839</v>
+      </c>
+      <c r="D28">
+        <v>1.038501574190725</v>
+      </c>
+      <c r="E28">
+        <v>0.9904172594852118</v>
+      </c>
+      <c r="F28">
+        <v>1.038501574190725</v>
+      </c>
+      <c r="G28">
+        <v>0.9904172594852118</v>
+      </c>
+      <c r="H28">
+        <v>0.9742564560791315</v>
+      </c>
+      <c r="I28">
+        <v>1.021191219788074</v>
+      </c>
+      <c r="J28">
+        <v>0.9903702525280895</v>
+      </c>
+      <c r="K28">
+        <v>0.9904172594852118</v>
+      </c>
+      <c r="L28">
+        <v>0.9903509073044839</v>
+      </c>
+      <c r="M28">
+        <v>1.014426240747605</v>
+      </c>
+      <c r="N28">
+        <v>1.014426240747605</v>
+      </c>
+      <c r="O28">
+        <v>1.016681233761094</v>
+      </c>
+      <c r="P28">
+        <v>1.006423246993474</v>
+      </c>
+      <c r="Q28">
+        <v>1.006423246993474</v>
+      </c>
+      <c r="R28">
+        <v>1.002421750116408</v>
+      </c>
+      <c r="S28">
+        <v>1.002421750116408</v>
+      </c>
+      <c r="T28">
+        <v>1.000847944895953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.99211599716858</v>
+      </c>
+      <c r="D29">
+        <v>1.031487071664842</v>
+      </c>
+      <c r="E29">
+        <v>0.9921502510957574</v>
+      </c>
+      <c r="F29">
+        <v>1.031487071664842</v>
+      </c>
+      <c r="G29">
+        <v>0.9921502510957574</v>
+      </c>
+      <c r="H29">
+        <v>0.9789694746705115</v>
+      </c>
+      <c r="I29">
+        <v>1.017325815791424</v>
+      </c>
+      <c r="J29">
+        <v>0.99212598439397</v>
+      </c>
+      <c r="K29">
+        <v>0.9921502510957574</v>
+      </c>
+      <c r="L29">
+        <v>0.99211599716858</v>
+      </c>
+      <c r="M29">
+        <v>1.011801534416711</v>
+      </c>
+      <c r="N29">
+        <v>1.011801534416711</v>
+      </c>
+      <c r="O29">
+        <v>1.013642961541615</v>
+      </c>
+      <c r="P29">
+        <v>1.00525110664306</v>
+      </c>
+      <c r="Q29">
+        <v>1.00525110664306</v>
+      </c>
+      <c r="R29">
+        <v>1.001975892756234</v>
+      </c>
+      <c r="S29">
+        <v>1.001975892756234</v>
+      </c>
+      <c r="T29">
+        <v>1.000695765797514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9956780518044105</v>
+      </c>
+      <c r="D30">
+        <v>1.017328676008452</v>
+      </c>
+      <c r="E30">
+        <v>0.9956494357383376</v>
+      </c>
+      <c r="F30">
+        <v>1.017328676008452</v>
+      </c>
+      <c r="G30">
+        <v>0.9956494357383376</v>
+      </c>
+      <c r="H30">
+        <v>0.9884802527515555</v>
+      </c>
+      <c r="I30">
+        <v>1.009524150874993</v>
+      </c>
+      <c r="J30">
+        <v>0.9956697080117675</v>
+      </c>
+      <c r="K30">
+        <v>0.9956494357383376</v>
+      </c>
+      <c r="L30">
+        <v>0.9956780518044105</v>
+      </c>
+      <c r="M30">
+        <v>1.006503363906431</v>
+      </c>
+      <c r="N30">
+        <v>1.006503363906431</v>
+      </c>
+      <c r="O30">
+        <v>1.007510292895952</v>
+      </c>
+      <c r="P30">
+        <v>1.0028853878504</v>
+      </c>
+      <c r="Q30">
+        <v>1.0028853878504</v>
+      </c>
+      <c r="R30">
+        <v>1.001076399822384</v>
+      </c>
+      <c r="S30">
+        <v>1.001076399822384</v>
+      </c>
+      <c r="T30">
+        <v>1.000388379198253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9953072836834721</v>
+      </c>
+      <c r="D31">
+        <v>1.018836570298831</v>
+      </c>
+      <c r="E31">
+        <v>0.995261293062637</v>
+      </c>
+      <c r="F31">
+        <v>1.018836570298831</v>
+      </c>
+      <c r="G31">
+        <v>0.995261293062637</v>
+      </c>
+      <c r="H31">
+        <v>0.9874948513908497</v>
+      </c>
+      <c r="I31">
+        <v>1.010349471875714</v>
+      </c>
+      <c r="J31">
+        <v>0.9952938737281763</v>
+      </c>
+      <c r="K31">
+        <v>0.995261293062637</v>
+      </c>
+      <c r="L31">
+        <v>0.9953072836834721</v>
+      </c>
+      <c r="M31">
+        <v>1.007071926991151</v>
+      </c>
+      <c r="N31">
+        <v>1.007071926991151</v>
+      </c>
+      <c r="O31">
+        <v>1.008164441952672</v>
+      </c>
+      <c r="P31">
+        <v>1.00313504901498</v>
+      </c>
+      <c r="Q31">
+        <v>1.00313504901498</v>
+      </c>
+      <c r="R31">
+        <v>1.001166610026894</v>
+      </c>
+      <c r="S31">
+        <v>1.001166610026894</v>
+      </c>
+      <c r="T31">
+        <v>1.00042389067328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9888877309589039</v>
+      </c>
+      <c r="D32">
+        <v>1.044285950410959</v>
+      </c>
+      <c r="E32">
+        <v>0.989001912328767</v>
+      </c>
+      <c r="F32">
+        <v>1.044285950410959</v>
+      </c>
+      <c r="G32">
+        <v>0.989001912328767</v>
+      </c>
+      <c r="H32">
+        <v>0.9703455435616437</v>
+      </c>
+      <c r="I32">
+        <v>1.024383695068493</v>
+      </c>
+      <c r="J32">
+        <v>0.9889210199999997</v>
+      </c>
+      <c r="K32">
+        <v>0.989001912328767</v>
+      </c>
+      <c r="L32">
+        <v>0.9888877309589039</v>
+      </c>
+      <c r="M32">
+        <v>1.016586840684931</v>
+      </c>
+      <c r="N32">
+        <v>1.016586840684931</v>
+      </c>
+      <c r="O32">
+        <v>1.019185792146118</v>
+      </c>
+      <c r="P32">
+        <v>1.00739186456621</v>
+      </c>
+      <c r="Q32">
+        <v>1.00739186456621</v>
+      </c>
+      <c r="R32">
+        <v>1.002794376506849</v>
+      </c>
+      <c r="S32">
+        <v>1.002794376506849</v>
+      </c>
+      <c r="T32">
+        <v>1.000970975388128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.003952777368421</v>
+      </c>
+      <c r="D33">
+        <v>0.9847224236842105</v>
+      </c>
+      <c r="E33">
+        <v>1.003579299473684</v>
+      </c>
+      <c r="F33">
+        <v>0.9847224236842105</v>
+      </c>
+      <c r="G33">
+        <v>1.003579299473684</v>
+      </c>
+      <c r="H33">
+        <v>1.010611881052632</v>
+      </c>
+      <c r="I33">
+        <v>0.9915108994736841</v>
+      </c>
+      <c r="J33">
+        <v>1.003843893157895</v>
+      </c>
+      <c r="K33">
+        <v>1.003579299473684</v>
+      </c>
+      <c r="L33">
+        <v>1.003952777368421</v>
+      </c>
+      <c r="M33">
+        <v>0.9943376005263158</v>
+      </c>
+      <c r="N33">
+        <v>0.9943376005263158</v>
+      </c>
+      <c r="O33">
+        <v>0.9933953668421053</v>
+      </c>
+      <c r="P33">
+        <v>0.9974181668421053</v>
+      </c>
+      <c r="Q33">
+        <v>0.9974181668421053</v>
+      </c>
+      <c r="R33">
+        <v>0.9989584500000001</v>
+      </c>
+      <c r="S33">
+        <v>0.9989584500000001</v>
+      </c>
+      <c r="T33">
+        <v>0.9997035290350879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.006396526842105</v>
+      </c>
+      <c r="D34">
+        <v>0.9744232884210525</v>
+      </c>
+      <c r="E34">
+        <v>1.006389938421053</v>
+      </c>
+      <c r="F34">
+        <v>0.9744232884210525</v>
+      </c>
+      <c r="G34">
+        <v>1.006389938421053</v>
+      </c>
+      <c r="H34">
+        <v>1.017058677894737</v>
+      </c>
+      <c r="I34">
+        <v>0.9859312868421052</v>
+      </c>
+      <c r="J34">
+        <v>1.006394599473684</v>
+      </c>
+      <c r="K34">
+        <v>1.006389938421053</v>
+      </c>
+      <c r="L34">
+        <v>1.006396526842105</v>
+      </c>
+      <c r="M34">
+        <v>0.9904099076315789</v>
+      </c>
+      <c r="N34">
+        <v>0.9904099076315789</v>
+      </c>
+      <c r="O34">
+        <v>0.9889170340350876</v>
+      </c>
+      <c r="P34">
+        <v>0.9957365845614033</v>
+      </c>
+      <c r="Q34">
+        <v>0.9957365845614033</v>
+      </c>
+      <c r="R34">
+        <v>0.9983999230263156</v>
+      </c>
+      <c r="S34">
+        <v>0.9983999230263156</v>
+      </c>
+      <c r="T34">
+        <v>0.9994323863157893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9827026386248929</v>
+      </c>
+      <c r="D35">
+        <v>1.069436575668115</v>
+      </c>
+      <c r="E35">
+        <v>0.9825296455986897</v>
+      </c>
+      <c r="F35">
+        <v>1.069436575668115</v>
+      </c>
+      <c r="G35">
+        <v>0.9825296455986897</v>
+      </c>
+      <c r="H35">
+        <v>0.953906656312446</v>
+      </c>
+      <c r="I35">
+        <v>1.038150064817806</v>
+      </c>
+      <c r="J35">
+        <v>0.982652201239355</v>
+      </c>
+      <c r="K35">
+        <v>0.9825296455986897</v>
+      </c>
+      <c r="L35">
+        <v>0.9827026386248929</v>
+      </c>
+      <c r="M35">
+        <v>1.026069607146504</v>
+      </c>
+      <c r="N35">
+        <v>1.026069607146504</v>
+      </c>
+      <c r="O35">
+        <v>1.030096426370271</v>
+      </c>
+      <c r="P35">
+        <v>1.011556286630566</v>
+      </c>
+      <c r="Q35">
+        <v>1.011556286630566</v>
+      </c>
+      <c r="R35">
+        <v>1.004299626372597</v>
+      </c>
+      <c r="S35">
+        <v>1.004299626372597</v>
+      </c>
+      <c r="T35">
+        <v>1.001562963710217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999982201373447</v>
+      </c>
+      <c r="D36">
+        <v>1.000008667036453</v>
+      </c>
+      <c r="E36">
+        <v>0.999997137140615</v>
+      </c>
+      <c r="F36">
+        <v>1.000008667036453</v>
+      </c>
+      <c r="G36">
+        <v>0.999997137140615</v>
+      </c>
+      <c r="H36">
+        <v>0.9999954634901617</v>
+      </c>
+      <c r="I36">
+        <v>1.00000451677198</v>
+      </c>
+      <c r="J36">
+        <v>0.9999979053407558</v>
+      </c>
+      <c r="K36">
+        <v>0.999997137140615</v>
+      </c>
+      <c r="L36">
+        <v>0.9999982201373447</v>
+      </c>
+      <c r="M36">
+        <v>1.000003443586899</v>
+      </c>
+      <c r="N36">
+        <v>1.000003443586899</v>
+      </c>
+      <c r="O36">
+        <v>1.000003801315259</v>
+      </c>
+      <c r="P36">
+        <v>1.000001341438137</v>
+      </c>
+      <c r="Q36">
+        <v>1.000001341438137</v>
+      </c>
+      <c r="R36">
+        <v>1.000000290363757</v>
+      </c>
+      <c r="S36">
+        <v>1.000000290363757</v>
+      </c>
+      <c r="T36">
+        <v>1.000000318319552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999565484448533</v>
+      </c>
+      <c r="D37">
+        <v>1.000172314683491</v>
+      </c>
+      <c r="E37">
+        <v>0.9999575928523742</v>
+      </c>
+      <c r="F37">
+        <v>1.000172314683491</v>
+      </c>
+      <c r="G37">
+        <v>0.9999575928523742</v>
+      </c>
+      <c r="H37">
+        <v>0.999883933753003</v>
+      </c>
+      <c r="I37">
+        <v>1.000095015443496</v>
+      </c>
+      <c r="J37">
+        <v>0.9999568539160034</v>
+      </c>
+      <c r="K37">
+        <v>0.9999575928523742</v>
+      </c>
+      <c r="L37">
+        <v>0.9999565484448533</v>
+      </c>
+      <c r="M37">
+        <v>1.000064431564172</v>
+      </c>
+      <c r="N37">
+        <v>1.000064431564172</v>
+      </c>
+      <c r="O37">
+        <v>1.000074626190613</v>
+      </c>
+      <c r="P37">
+        <v>1.00002881866024</v>
+      </c>
+      <c r="Q37">
+        <v>1.00002881866024</v>
+      </c>
+      <c r="R37">
+        <v>1.000011012208273</v>
+      </c>
+      <c r="S37">
+        <v>1.000011012208273</v>
+      </c>
+      <c r="T37">
+        <v>1.00000370984887</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9998482435396185</v>
+      </c>
+      <c r="D38">
+        <v>1.000609039630626</v>
+      </c>
+      <c r="E38">
+        <v>0.9998468388062062</v>
+      </c>
+      <c r="F38">
+        <v>1.000609039630626</v>
+      </c>
+      <c r="G38">
+        <v>0.9998468388062062</v>
+      </c>
+      <c r="H38">
+        <v>0.9995955785206447</v>
+      </c>
+      <c r="I38">
+        <v>1.000334647094415</v>
+      </c>
+      <c r="J38">
+        <v>0.9998478323357067</v>
+      </c>
+      <c r="K38">
+        <v>0.9998468388062062</v>
+      </c>
+      <c r="L38">
+        <v>0.9998482435396185</v>
+      </c>
+      <c r="M38">
+        <v>1.000228641585122</v>
+      </c>
+      <c r="N38">
+        <v>1.000228641585122</v>
+      </c>
+      <c r="O38">
+        <v>1.000263976754886</v>
+      </c>
+      <c r="P38">
+        <v>1.00010137399215</v>
+      </c>
+      <c r="Q38">
+        <v>1.00010137399215</v>
+      </c>
+      <c r="R38">
+        <v>1.000037740195664</v>
+      </c>
+      <c r="S38">
+        <v>1.000037740195664</v>
+      </c>
+      <c r="T38">
+        <v>1.000013696654536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9996450872022719</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.001427991190117</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9996392566565201</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.001427991190117</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9996392566565201</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9990546828882355</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000784040606523</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9996433842722557</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9996392566565201</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9996450872022719</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000536539196195</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000536539196195</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000619039666304</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000237445016303</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000237445016303</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000087897926357</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000087897926357</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000032407135987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.002663928160471</v>
+      </c>
+      <c r="D40">
+        <v>0.9893454911472179</v>
+      </c>
+      <c r="E40">
+        <v>1.00266308129584</v>
+      </c>
+      <c r="F40">
+        <v>0.9893454911472179</v>
+      </c>
+      <c r="G40">
+        <v>1.00266308129584</v>
+      </c>
+      <c r="H40">
+        <v>1.00710397695084</v>
+      </c>
+      <c r="I40">
+        <v>0.994139824433027</v>
+      </c>
+      <c r="J40">
+        <v>1.002663682799783</v>
+      </c>
+      <c r="K40">
+        <v>1.00266308129584</v>
+      </c>
+      <c r="L40">
+        <v>1.002663928160471</v>
+      </c>
+      <c r="M40">
+        <v>0.9960047096538444</v>
+      </c>
+      <c r="N40">
+        <v>0.9960047096538444</v>
+      </c>
+      <c r="O40">
+        <v>0.9953830812469052</v>
+      </c>
+      <c r="P40">
+        <v>0.998224166867843</v>
+      </c>
+      <c r="Q40">
+        <v>0.998224166867843</v>
+      </c>
+      <c r="R40">
+        <v>0.9993338954748423</v>
+      </c>
+      <c r="S40">
+        <v>0.9993338954748423</v>
+      </c>
+      <c r="T40">
+        <v>0.9997633307978631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9997843364796202</v>
+      </c>
+      <c r="D41">
+        <v>1.000797919001958</v>
+      </c>
+      <c r="E41">
+        <v>0.9998296543786408</v>
+      </c>
+      <c r="F41">
+        <v>1.000797919001958</v>
+      </c>
+      <c r="G41">
+        <v>0.9998296543786408</v>
+      </c>
+      <c r="H41">
+        <v>0.9994162644080435</v>
+      </c>
+      <c r="I41">
+        <v>1.000449344187186</v>
+      </c>
+      <c r="J41">
+        <v>0.9997975484547722</v>
+      </c>
+      <c r="K41">
+        <v>0.9998296543786408</v>
+      </c>
+      <c r="L41">
+        <v>0.9997843364796202</v>
+      </c>
+      <c r="M41">
+        <v>1.000291127740789</v>
+      </c>
+      <c r="N41">
+        <v>1.000291127740789</v>
+      </c>
+      <c r="O41">
+        <v>1.000343866556255</v>
+      </c>
+      <c r="P41">
+        <v>1.00013730328674</v>
+      </c>
+      <c r="Q41">
+        <v>1.00013730328674</v>
+      </c>
+      <c r="R41">
+        <v>1.000060391059715</v>
+      </c>
+      <c r="S41">
+        <v>1.000060391059715</v>
+      </c>
+      <c r="T41">
+        <v>1.000012511151703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9945438386669472</v>
+      </c>
+      <c r="D42">
+        <v>1.021890422101746</v>
+      </c>
+      <c r="E42">
+        <v>0.9944977920426039</v>
+      </c>
+      <c r="F42">
+        <v>1.021890422101746</v>
+      </c>
+      <c r="G42">
+        <v>0.9944977920426039</v>
+      </c>
+      <c r="H42">
+        <v>0.9854590114869531</v>
+      </c>
+      <c r="I42">
+        <v>1.012029077351492</v>
+      </c>
+      <c r="J42">
+        <v>0.9945304143920936</v>
+      </c>
+      <c r="K42">
+        <v>0.9944977920426039</v>
+      </c>
+      <c r="L42">
+        <v>0.9945438386669472</v>
+      </c>
+      <c r="M42">
+        <v>1.008217130384346</v>
+      </c>
+      <c r="N42">
+        <v>1.008217130384346</v>
+      </c>
+      <c r="O42">
+        <v>1.009487779373395</v>
+      </c>
+      <c r="P42">
+        <v>1.003644017603766</v>
+      </c>
+      <c r="Q42">
+        <v>1.003644017603766</v>
+      </c>
+      <c r="R42">
+        <v>1.001357461213475</v>
+      </c>
+      <c r="S42">
+        <v>1.001357461213475</v>
+      </c>
+      <c r="T42">
+        <v>1.000491759340306</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,36 +85,36 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +122,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9995089791943356</v>
+        <v>0.9999285719978939</v>
       </c>
       <c r="D3">
-        <v>1.001974138940215</v>
+        <v>1.00028575229939</v>
       </c>
       <c r="E3">
-        <v>0.9995050687056324</v>
+        <v>0.999928544456024</v>
       </c>
       <c r="F3">
-        <v>0.9995089791943356</v>
+        <v>1.00028575229939</v>
       </c>
       <c r="G3">
-        <v>0.998679441927302</v>
+        <v>0.999928544456024</v>
       </c>
       <c r="H3">
-        <v>1.001086681666614</v>
+        <v>0.9998095337126099</v>
       </c>
       <c r="I3">
-        <v>0.9995062097700599</v>
+        <v>1.000157157804681</v>
       </c>
       <c r="J3">
-        <v>1.001974138940215</v>
+        <v>0.9999285646702367</v>
       </c>
       <c r="K3">
-        <v>0.9995089791943356</v>
+        <v>0.999928544456024</v>
       </c>
       <c r="L3">
-        <v>0.9995050687056324</v>
+        <v>0.9999285719978939</v>
       </c>
       <c r="M3">
-        <v>1.000739603822923</v>
+        <v>1.000107162148642</v>
       </c>
       <c r="N3">
-        <v>1.000739603822923</v>
+        <v>1.000107162148642</v>
       </c>
       <c r="O3">
-        <v>1.000855296437487</v>
+        <v>1.000123827367321</v>
       </c>
       <c r="P3">
-        <v>1.000329395613394</v>
+        <v>1.000047622917769</v>
       </c>
       <c r="Q3">
-        <v>1.000329395613394</v>
+        <v>1.000047622917769</v>
       </c>
       <c r="R3">
-        <v>1.00012429150863</v>
+        <v>1.000017853302333</v>
       </c>
       <c r="S3">
-        <v>1.00012429150863</v>
+        <v>1.000017853302333</v>
       </c>
       <c r="T3">
-        <v>1.000043420034026</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000006354156806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9990521657258106</v>
+        <v>1.002663928160471</v>
       </c>
       <c r="D4">
-        <v>1.003811004089877</v>
+        <v>0.9893454911472179</v>
       </c>
       <c r="E4">
-        <v>0.9990445177703934</v>
+        <v>1.00266308129584</v>
       </c>
       <c r="F4">
-        <v>0.9990521657258106</v>
+        <v>0.9893454911472179</v>
       </c>
       <c r="G4">
-        <v>0.9974505937605196</v>
+        <v>1.00266308129584</v>
       </c>
       <c r="H4">
-        <v>1.002097821896416</v>
+        <v>1.00710397695084</v>
       </c>
       <c r="I4">
-        <v>0.9990467475825771</v>
+        <v>0.994139824433027</v>
       </c>
       <c r="J4">
-        <v>1.003811004089877</v>
+        <v>1.002663682799783</v>
       </c>
       <c r="K4">
-        <v>0.9990521657258106</v>
+        <v>1.00266308129584</v>
       </c>
       <c r="L4">
-        <v>0.9990445177703934</v>
+        <v>1.002663928160471</v>
       </c>
       <c r="M4">
-        <v>1.001427760930135</v>
+        <v>0.9960047096538444</v>
       </c>
       <c r="N4">
-        <v>1.001427760930135</v>
+        <v>0.9960047096538444</v>
       </c>
       <c r="O4">
-        <v>1.001651114585562</v>
+        <v>0.9953830812469052</v>
       </c>
       <c r="P4">
-        <v>1.000635895862027</v>
+        <v>0.998224166867843</v>
       </c>
       <c r="Q4">
-        <v>1.000635895862027</v>
+        <v>0.998224166867843</v>
       </c>
       <c r="R4">
-        <v>1.000239963327973</v>
+        <v>0.9993338954748423</v>
       </c>
       <c r="S4">
-        <v>1.000239963327973</v>
+        <v>0.9993338954748423</v>
       </c>
       <c r="T4">
-        <v>1.000083808470932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9997633307978631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9981828813508146</v>
+        <v>0.9949976620749289</v>
       </c>
       <c r="D5">
-        <v>1.007303754946199</v>
+        <v>1.020058886930838</v>
       </c>
       <c r="E5">
-        <v>0.998169162602943</v>
+        <v>0.9949629863832838</v>
       </c>
       <c r="F5">
-        <v>0.9981828813508146</v>
+        <v>1.020058886930838</v>
       </c>
       <c r="G5">
-        <v>0.9951151586072533</v>
+        <v>0.9949629863832838</v>
       </c>
       <c r="H5">
-        <v>1.00402024402196</v>
+        <v>0.9866670408645514</v>
       </c>
       <c r="I5">
-        <v>0.9981731589032151</v>
+        <v>1.011024362716139</v>
       </c>
       <c r="J5">
-        <v>1.007303754946199</v>
+        <v>0.9949875531700276</v>
       </c>
       <c r="K5">
-        <v>0.9981828813508146</v>
+        <v>0.9949629863832838</v>
       </c>
       <c r="L5">
-        <v>0.998169162602943</v>
+        <v>0.9949976620749289</v>
       </c>
       <c r="M5">
-        <v>1.002736458774571</v>
+        <v>1.007528274502884</v>
       </c>
       <c r="N5">
-        <v>1.002736458774571</v>
+        <v>1.007528274502884</v>
       </c>
       <c r="O5">
-        <v>1.003164387190367</v>
+        <v>1.008693637240635</v>
       </c>
       <c r="P5">
-        <v>1.001218599633319</v>
+        <v>1.003339845129684</v>
       </c>
       <c r="Q5">
-        <v>1.001218599633319</v>
+        <v>1.003339845129684</v>
       </c>
       <c r="R5">
-        <v>1.000459670062693</v>
+        <v>1.001245630443084</v>
       </c>
       <c r="S5">
-        <v>1.000459670062693</v>
+        <v>1.001245630443084</v>
       </c>
       <c r="T5">
-        <v>1.000160726738731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.000449748689962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9973345171581478</v>
+        <v>0.9827026386248929</v>
       </c>
       <c r="D6">
-        <v>1.010712489876634</v>
+        <v>1.069436575668115</v>
       </c>
       <c r="E6">
-        <v>0.9973148471175791</v>
+        <v>0.9825296455986897</v>
       </c>
       <c r="F6">
-        <v>0.9973345171581478</v>
+        <v>1.069436575668115</v>
       </c>
       <c r="G6">
-        <v>0.9928358624022283</v>
+        <v>0.9825296455986897</v>
       </c>
       <c r="H6">
-        <v>1.00589641675649</v>
+        <v>0.953906656312446</v>
       </c>
       <c r="I6">
-        <v>0.9973205829757494</v>
+        <v>1.038150064817806</v>
       </c>
       <c r="J6">
-        <v>1.010712489876634</v>
+        <v>0.982652201239355</v>
       </c>
       <c r="K6">
-        <v>0.9973345171581478</v>
+        <v>0.9825296455986897</v>
       </c>
       <c r="L6">
-        <v>0.9973148471175791</v>
+        <v>0.9827026386248929</v>
       </c>
       <c r="M6">
-        <v>1.004013668497107</v>
+        <v>1.026069607146504</v>
       </c>
       <c r="N6">
-        <v>1.004013668497107</v>
+        <v>1.026069607146504</v>
       </c>
       <c r="O6">
-        <v>1.004641251250235</v>
+        <v>1.030096426370271</v>
       </c>
       <c r="P6">
-        <v>1.001787284717454</v>
+        <v>1.011556286630566</v>
       </c>
       <c r="Q6">
-        <v>1.001787284717454</v>
+        <v>1.011556286630566</v>
       </c>
       <c r="R6">
-        <v>1.000674092827627</v>
+        <v>1.004299626372597</v>
       </c>
       <c r="S6">
-        <v>1.000674092827627</v>
+        <v>1.004299626372597</v>
       </c>
       <c r="T6">
-        <v>1.000235786047805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.001562963710217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999680930491397</v>
+        <v>0.9995066336133799</v>
       </c>
       <c r="D7">
-        <v>1.000127254257054</v>
+        <v>1.001965169718086</v>
       </c>
       <c r="E7">
-        <v>0.9999682384907231</v>
+        <v>0.9995124412818406</v>
       </c>
       <c r="F7">
-        <v>0.9999680930491397</v>
+        <v>1.001965169718086</v>
       </c>
       <c r="G7">
-        <v>0.9999153339727832</v>
+        <v>0.9995124412818406</v>
       </c>
       <c r="H7">
-        <v>1.000069956659459</v>
+        <v>0.9986832532268719</v>
       </c>
       <c r="I7">
-        <v>0.999968197093725</v>
+        <v>1.001082188924882</v>
       </c>
       <c r="J7">
-        <v>1.000127254257054</v>
+        <v>0.9995083272848116</v>
       </c>
       <c r="K7">
-        <v>0.9999680930491397</v>
+        <v>0.9995124412818406</v>
       </c>
       <c r="L7">
-        <v>0.9999682384907231</v>
+        <v>0.9995066336133799</v>
       </c>
       <c r="M7">
-        <v>1.000047746373889</v>
+        <v>1.000735901665733</v>
       </c>
       <c r="N7">
-        <v>1.000047746373889</v>
+        <v>1.000735901665733</v>
       </c>
       <c r="O7">
-        <v>1.000055149802412</v>
+        <v>1.000851330752116</v>
       </c>
       <c r="P7">
-        <v>1.000021195265639</v>
+        <v>1.000328081537769</v>
       </c>
       <c r="Q7">
-        <v>1.000021195265639</v>
+        <v>1.000328081537769</v>
       </c>
       <c r="R7">
-        <v>1.000007919711514</v>
+        <v>1.000124171473787</v>
       </c>
       <c r="S7">
-        <v>1.000007919711514</v>
+        <v>1.000124171473787</v>
       </c>
       <c r="T7">
-        <v>1.000002845587147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000043002341645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999285444560237</v>
+        <v>0.9999565484448533</v>
       </c>
       <c r="D8">
-        <v>1.00028575229939</v>
+        <v>1.000172314683491</v>
       </c>
       <c r="E8">
-        <v>0.9999285719978939</v>
+        <v>0.9999575928523742</v>
       </c>
       <c r="F8">
-        <v>0.9999285444560237</v>
+        <v>1.000172314683491</v>
       </c>
       <c r="G8">
-        <v>0.9998095337126099</v>
+        <v>0.9999575928523742</v>
       </c>
       <c r="H8">
-        <v>1.00015715780468</v>
+        <v>0.999883933753003</v>
       </c>
       <c r="I8">
-        <v>0.9999285646702365</v>
+        <v>1.000095015443496</v>
       </c>
       <c r="J8">
-        <v>1.00028575229939</v>
+        <v>0.9999568539160034</v>
       </c>
       <c r="K8">
-        <v>0.9999285444560237</v>
+        <v>0.9999575928523742</v>
       </c>
       <c r="L8">
-        <v>0.9999285719978939</v>
+        <v>0.9999565484448533</v>
       </c>
       <c r="M8">
-        <v>1.000107162148642</v>
+        <v>1.000064431564172</v>
       </c>
       <c r="N8">
-        <v>1.000107162148642</v>
+        <v>1.000064431564172</v>
       </c>
       <c r="O8">
-        <v>1.000123827367321</v>
+        <v>1.000074626190613</v>
       </c>
       <c r="P8">
-        <v>1.000047622917769</v>
+        <v>1.00002881866024</v>
       </c>
       <c r="Q8">
-        <v>1.000047622917769</v>
+        <v>1.00002881866024</v>
       </c>
       <c r="R8">
-        <v>1.000017853302333</v>
+        <v>1.000011012208273</v>
       </c>
       <c r="S8">
-        <v>1.000017853302333</v>
+        <v>1.000011012208273</v>
       </c>
       <c r="T8">
-        <v>1.000006354156806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.00000370984887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999056328352719</v>
+        <v>0.9990445177703934</v>
       </c>
       <c r="D9">
-        <v>1.000379257348897</v>
+        <v>1.003811004089877</v>
       </c>
       <c r="E9">
-        <v>0.9999049373744727</v>
+        <v>0.9990521657258106</v>
       </c>
       <c r="F9">
-        <v>0.9999056328352719</v>
+        <v>1.003811004089877</v>
       </c>
       <c r="G9">
-        <v>0.9997463698269369</v>
+        <v>0.9990521657258106</v>
       </c>
       <c r="H9">
-        <v>1.000208753503142</v>
+        <v>0.9974505937605196</v>
       </c>
       <c r="I9">
-        <v>0.9999051406293841</v>
+        <v>1.002097821896416</v>
       </c>
       <c r="J9">
-        <v>1.000379257348897</v>
+        <v>0.9990467475825771</v>
       </c>
       <c r="K9">
-        <v>0.9999056328352719</v>
+        <v>0.9990521657258106</v>
       </c>
       <c r="L9">
-        <v>0.9999049373744727</v>
+        <v>0.9990445177703934</v>
       </c>
       <c r="M9">
-        <v>1.000142097361685</v>
+        <v>1.001427760930135</v>
       </c>
       <c r="N9">
-        <v>1.000142097361685</v>
+        <v>1.001427760930135</v>
       </c>
       <c r="O9">
-        <v>1.000164316075504</v>
+        <v>1.001651114585562</v>
       </c>
       <c r="P9">
-        <v>1.000063275852881</v>
+        <v>1.000635895862027</v>
       </c>
       <c r="Q9">
-        <v>1.000063275852881</v>
+        <v>1.000635895862027</v>
       </c>
       <c r="R9">
-        <v>1.000023865098479</v>
+        <v>1.000239963327973</v>
       </c>
       <c r="S9">
-        <v>1.000023865098479</v>
+        <v>1.000239963327973</v>
       </c>
       <c r="T9">
-        <v>1.000008348586351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000083808470932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9997906000417701</v>
+        <v>0.9824455286893193</v>
       </c>
       <c r="D10">
-        <v>1.000839106437341</v>
+        <v>1.070472737844497</v>
       </c>
       <c r="E10">
-        <v>0.9997900146754395</v>
+        <v>0.9822671298941084</v>
       </c>
       <c r="F10">
-        <v>0.9997906000417701</v>
+        <v>1.070472737844497</v>
       </c>
       <c r="G10">
-        <v>0.9994399286414379</v>
+        <v>0.9822671298941084</v>
       </c>
       <c r="H10">
-        <v>1.000461643950858</v>
+        <v>0.9532220602718665</v>
       </c>
       <c r="I10">
-        <v>0.9997901865837786</v>
+        <v>1.038718702374367</v>
       </c>
       <c r="J10">
-        <v>1.000839106437341</v>
+        <v>0.9823935152468015</v>
       </c>
       <c r="K10">
-        <v>0.9997906000417701</v>
+        <v>0.9822671298941084</v>
       </c>
       <c r="L10">
-        <v>0.9997900146754395</v>
+        <v>0.9824455286893193</v>
       </c>
       <c r="M10">
-        <v>1.00031456055639</v>
+        <v>1.026459133266908</v>
       </c>
       <c r="N10">
-        <v>1.00031456055639</v>
+        <v>1.026459133266908</v>
       </c>
       <c r="O10">
-        <v>1.000363588354546</v>
+        <v>1.030545656302728</v>
       </c>
       <c r="P10">
-        <v>1.000139907051517</v>
+        <v>1.011728465475975</v>
       </c>
       <c r="Q10">
-        <v>1.000139907051517</v>
+        <v>1.011728465475975</v>
       </c>
       <c r="R10">
-        <v>1.00005258029908</v>
+        <v>1.004363131580508</v>
       </c>
       <c r="S10">
-        <v>1.00005258029908</v>
+        <v>1.004363131580508</v>
       </c>
       <c r="T10">
-        <v>1.000018580055104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.001586612386827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9996709748725832</v>
+        <v>1.001065495688795</v>
       </c>
       <c r="D11">
-        <v>1.001324736609869</v>
+        <v>0.9956609743520584</v>
       </c>
       <c r="E11">
-        <v>0.9996676153769876</v>
+        <v>1.001119424644171</v>
       </c>
       <c r="F11">
-        <v>0.9996709748725832</v>
+        <v>0.9956609743520584</v>
       </c>
       <c r="G11">
-        <v>0.999113005494895</v>
+        <v>1.001119424644171</v>
       </c>
       <c r="H11">
-        <v>1.000729384138211</v>
+        <v>1.002831052301122</v>
       </c>
       <c r="I11">
-        <v>0.9996685970698705</v>
+        <v>0.9976260171683459</v>
       </c>
       <c r="J11">
-        <v>1.001324736609869</v>
+        <v>1.001081219007493</v>
       </c>
       <c r="K11">
-        <v>0.9996709748725832</v>
+        <v>1.001119424644171</v>
       </c>
       <c r="L11">
-        <v>0.9996676153769876</v>
+        <v>1.001065495688795</v>
       </c>
       <c r="M11">
-        <v>1.000496175993428</v>
+        <v>0.9983632350204268</v>
       </c>
       <c r="N11">
-        <v>1.000496175993428</v>
+        <v>0.9983632350204268</v>
       </c>
       <c r="O11">
-        <v>1.000573912041689</v>
+        <v>0.9981174957363997</v>
       </c>
       <c r="P11">
-        <v>1.000221108953147</v>
+        <v>0.9992819648950082</v>
       </c>
       <c r="Q11">
-        <v>1.000221108953147</v>
+        <v>0.9992819648950082</v>
       </c>
       <c r="R11">
-        <v>1.000083575433006</v>
+        <v>0.9997413298322988</v>
       </c>
       <c r="S11">
-        <v>1.000083575433006</v>
+        <v>0.9997413298322988</v>
       </c>
       <c r="T11">
-        <v>1.000029052260403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9998973638603309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001926814300016</v>
+        <v>0.9948276541052654</v>
       </c>
       <c r="D12">
-        <v>0.9930606403511493</v>
+        <v>1.020770161894738</v>
       </c>
       <c r="E12">
-        <v>1.001628178870439</v>
+        <v>0.9947711098315786</v>
       </c>
       <c r="F12">
-        <v>1.001926814300016</v>
+        <v>1.020770161894738</v>
       </c>
       <c r="G12">
-        <v>1.004284944662976</v>
+        <v>0.9947711098315786</v>
       </c>
       <c r="H12">
-        <v>0.9962524615799423</v>
+        <v>0.9862178508421059</v>
       </c>
       <c r="I12">
-        <v>1.001715254269505</v>
+        <v>1.01141050234737</v>
       </c>
       <c r="J12">
-        <v>0.9930606403511493</v>
+        <v>0.9948111689263149</v>
       </c>
       <c r="K12">
-        <v>1.001926814300016</v>
+        <v>0.9947711098315786</v>
       </c>
       <c r="L12">
-        <v>1.001628178870439</v>
+        <v>0.9948276541052654</v>
       </c>
       <c r="M12">
-        <v>0.9973444096107941</v>
+        <v>1.007798908000002</v>
       </c>
       <c r="N12">
-        <v>0.9973444096107941</v>
+        <v>1.007798908000002</v>
       </c>
       <c r="O12">
-        <v>0.9969804269338435</v>
+        <v>1.009002772782458</v>
       </c>
       <c r="P12">
-        <v>0.9988718778405344</v>
+        <v>1.003456308610527</v>
       </c>
       <c r="Q12">
-        <v>0.9988718778405344</v>
+        <v>1.003456308610527</v>
       </c>
       <c r="R12">
-        <v>0.9996356119554047</v>
+        <v>1.00128500891579</v>
       </c>
       <c r="S12">
-        <v>0.9996356119554047</v>
+        <v>1.00128500891579</v>
       </c>
       <c r="T12">
-        <v>0.9998113823390044</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000468074657896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000338328286865</v>
+        <v>1.003459787529534</v>
       </c>
       <c r="D13">
-        <v>0.9983240710954566</v>
+        <v>0.9861540377158861</v>
       </c>
       <c r="E13">
-        <v>1.000463792942587</v>
+        <v>1.003464559894419</v>
       </c>
       <c r="F13">
-        <v>1.000338328286865</v>
+        <v>0.9861540377158861</v>
       </c>
       <c r="G13">
-        <v>1.001260677753924</v>
+        <v>1.003464559894419</v>
       </c>
       <c r="H13">
-        <v>0.9990492061484643</v>
+        <v>1.009225194939853</v>
       </c>
       <c r="I13">
-        <v>1.000427214557603</v>
+        <v>0.9923858246697717</v>
       </c>
       <c r="J13">
-        <v>0.9983240710954566</v>
+        <v>1.00346117914602</v>
       </c>
       <c r="K13">
-        <v>1.000338328286865</v>
+        <v>1.003464559894419</v>
       </c>
       <c r="L13">
-        <v>1.000463792942587</v>
+        <v>1.003459787529534</v>
       </c>
       <c r="M13">
-        <v>0.999393932019022</v>
+        <v>0.9948069126227099</v>
       </c>
       <c r="N13">
-        <v>0.999393932019022</v>
+        <v>0.9948069126227099</v>
       </c>
       <c r="O13">
-        <v>0.9992790233955028</v>
+        <v>0.9939998833050638</v>
       </c>
       <c r="P13">
-        <v>0.9997087307749696</v>
+        <v>0.9976927950466129</v>
       </c>
       <c r="Q13">
-        <v>0.9997087307749696</v>
+        <v>0.9976927950466131</v>
       </c>
       <c r="R13">
-        <v>0.9998661301529435</v>
+        <v>0.9991357362585647</v>
       </c>
       <c r="S13">
-        <v>0.9998661301529435</v>
+        <v>0.9991357362585647</v>
       </c>
       <c r="T13">
-        <v>0.9999772151308166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9996917639825806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.00229955870053</v>
+        <v>0.9696726700000003</v>
       </c>
       <c r="D14">
-        <v>0.9897079552393379</v>
+        <v>1.1217596</v>
       </c>
       <c r="E14">
-        <v>1.002724931667661</v>
+        <v>0.9693574699999995</v>
       </c>
       <c r="F14">
-        <v>1.00229955870053</v>
+        <v>1.1217596</v>
       </c>
       <c r="G14">
-        <v>1.007347508454681</v>
+        <v>0.9693574699999995</v>
       </c>
       <c r="H14">
-        <v>0.9942409311711703</v>
+        <v>0.9191871600000003</v>
       </c>
       <c r="I14">
-        <v>1.002600916710594</v>
+        <v>1.0668948</v>
       </c>
       <c r="J14">
-        <v>0.9897079552393379</v>
+        <v>0.9695807699999998</v>
       </c>
       <c r="K14">
-        <v>1.00229955870053</v>
+        <v>0.9693574699999995</v>
       </c>
       <c r="L14">
-        <v>1.002724931667661</v>
+        <v>0.9696726700000003</v>
       </c>
       <c r="M14">
-        <v>0.9962164434534995</v>
+        <v>1.045716135</v>
       </c>
       <c r="N14">
-        <v>0.9962164434534995</v>
+        <v>1.045716135</v>
       </c>
       <c r="O14">
-        <v>0.9955579393593897</v>
+        <v>1.05277569</v>
       </c>
       <c r="P14">
-        <v>0.998244148535843</v>
+        <v>1.020263246666667</v>
       </c>
       <c r="Q14">
-        <v>0.9982441485358432</v>
+        <v>1.020263246666667</v>
       </c>
       <c r="R14">
-        <v>0.9992580010770149</v>
+        <v>1.0075368025</v>
       </c>
       <c r="S14">
-        <v>0.9992580010770149</v>
+        <v>1.0075368025</v>
       </c>
       <c r="T14">
-        <v>0.9998203003239957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.002742078333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.00078182513898</v>
+        <v>1.0113912</v>
       </c>
       <c r="D15">
-        <v>0.9973229015443735</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="E15">
-        <v>1.000606737637396</v>
+        <v>1.012634</v>
       </c>
       <c r="F15">
-        <v>1.00078182513898</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="G15">
-        <v>1.001584642071828</v>
+        <v>1.012634</v>
       </c>
       <c r="H15">
-        <v>0.9985681129572284</v>
+        <v>1.0301398</v>
       </c>
       <c r="I15">
-        <v>1.00065779050995</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="J15">
-        <v>0.9973229015443735</v>
+        <v>1.0117535</v>
       </c>
       <c r="K15">
-        <v>1.00078182513898</v>
+        <v>1.012634</v>
       </c>
       <c r="L15">
-        <v>1.000606737637396</v>
+        <v>1.0113912</v>
       </c>
       <c r="M15">
-        <v>0.9989648195908847</v>
+        <v>0.9820255</v>
       </c>
       <c r="N15">
-        <v>0.9989648195908847</v>
+        <v>0.9820255</v>
       </c>
       <c r="O15">
-        <v>0.9988325840463327</v>
+        <v>0.97943384</v>
       </c>
       <c r="P15">
-        <v>0.9995704881069165</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q15">
-        <v>0.9995704881069165</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R15">
-        <v>0.9998733223649324</v>
+        <v>0.99732975</v>
       </c>
       <c r="S15">
-        <v>0.9998733223649324</v>
+        <v>0.99732975</v>
       </c>
       <c r="T15">
-        <v>0.999920334976626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9988048033333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999971371406151</v>
+        <v>1.0193616</v>
       </c>
       <c r="D16">
-        <v>1.000008667036452</v>
+        <v>0.92240399</v>
       </c>
       <c r="E16">
-        <v>0.9999982201373447</v>
+        <v>1.0194663</v>
       </c>
       <c r="F16">
-        <v>0.9999971371406151</v>
+        <v>0.92240399</v>
       </c>
       <c r="G16">
-        <v>0.9999954634901617</v>
+        <v>1.0194663</v>
       </c>
       <c r="H16">
-        <v>1.00000451677198</v>
+        <v>1.051611</v>
       </c>
       <c r="I16">
-        <v>0.9999979053407559</v>
+        <v>0.9573464299999999</v>
       </c>
       <c r="J16">
-        <v>1.000008667036452</v>
+        <v>1.0193921</v>
       </c>
       <c r="K16">
-        <v>0.9999971371406151</v>
+        <v>1.0194663</v>
       </c>
       <c r="L16">
-        <v>0.9999982201373447</v>
+        <v>1.0193616</v>
       </c>
       <c r="M16">
-        <v>1.000003443586899</v>
+        <v>0.9708827950000001</v>
       </c>
       <c r="N16">
-        <v>1.000003443586899</v>
+        <v>0.9708827950000001</v>
       </c>
       <c r="O16">
-        <v>1.000003801315259</v>
+        <v>0.9663706733333334</v>
       </c>
       <c r="P16">
-        <v>1.000001341438137</v>
+        <v>0.9870772966666667</v>
       </c>
       <c r="Q16">
-        <v>1.000001341438137</v>
+        <v>0.9870772966666665</v>
       </c>
       <c r="R16">
-        <v>1.000000290363757</v>
+        <v>0.9951745474999999</v>
       </c>
       <c r="S16">
-        <v>1.000000290363757</v>
+        <v>0.9951745474999999</v>
       </c>
       <c r="T16">
-        <v>1.000000318319552</v>
+        <v>0.9982635699999999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999575928523741</v>
+        <v>1.0218585</v>
       </c>
       <c r="D17">
-        <v>1.000172314683491</v>
+        <v>0.9130504</v>
       </c>
       <c r="E17">
-        <v>0.9999565484448527</v>
+        <v>1.0215194</v>
       </c>
       <c r="F17">
-        <v>0.9999575928523741</v>
+        <v>0.9130504</v>
       </c>
       <c r="G17">
-        <v>0.999883933753003</v>
+        <v>1.0215194</v>
       </c>
       <c r="H17">
-        <v>1.000095015443496</v>
+        <v>1.0583539</v>
       </c>
       <c r="I17">
-        <v>0.9999568539160035</v>
+        <v>0.95209925</v>
       </c>
       <c r="J17">
-        <v>1.000172314683491</v>
+        <v>1.0217596</v>
       </c>
       <c r="K17">
-        <v>0.9999575928523741</v>
+        <v>1.0215194</v>
       </c>
       <c r="L17">
-        <v>0.9999565484448527</v>
+        <v>1.0218585</v>
       </c>
       <c r="M17">
-        <v>1.000064431564172</v>
+        <v>0.96745445</v>
       </c>
       <c r="N17">
-        <v>1.000064431564172</v>
+        <v>0.96745445</v>
       </c>
       <c r="O17">
-        <v>1.000074626190613</v>
+        <v>0.9623360499999999</v>
       </c>
       <c r="P17">
-        <v>1.000028818660239</v>
+        <v>0.9854761</v>
       </c>
       <c r="Q17">
-        <v>1.000028818660239</v>
+        <v>0.9854761000000001</v>
       </c>
       <c r="R17">
-        <v>1.000011012208273</v>
+        <v>0.9944869250000001</v>
       </c>
       <c r="S17">
-        <v>1.000011012208273</v>
+        <v>0.9944869250000001</v>
       </c>
       <c r="T17">
-        <v>1.00000370984887</v>
+        <v>0.9981068416666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9998468388062062</v>
+        <v>0.9888877309589039</v>
       </c>
       <c r="D18">
-        <v>1.000609039630626</v>
+        <v>1.044285950410959</v>
       </c>
       <c r="E18">
-        <v>0.9998482435396185</v>
+        <v>0.989001912328767</v>
       </c>
       <c r="F18">
-        <v>0.9998468388062062</v>
+        <v>1.044285950410959</v>
       </c>
       <c r="G18">
-        <v>0.9995955785206447</v>
+        <v>0.989001912328767</v>
       </c>
       <c r="H18">
-        <v>1.000334647094415</v>
+        <v>0.9703455435616437</v>
       </c>
       <c r="I18">
-        <v>0.9998478323357067</v>
+        <v>1.024383695068493</v>
       </c>
       <c r="J18">
-        <v>1.000609039630626</v>
+        <v>0.9889210199999997</v>
       </c>
       <c r="K18">
-        <v>0.9998468388062062</v>
+        <v>0.989001912328767</v>
       </c>
       <c r="L18">
-        <v>0.9998482435396185</v>
+        <v>0.9888877309589039</v>
       </c>
       <c r="M18">
-        <v>1.000228641585122</v>
+        <v>1.016586840684931</v>
       </c>
       <c r="N18">
-        <v>1.000228641585122</v>
+        <v>1.016586840684931</v>
       </c>
       <c r="O18">
-        <v>1.000263976754886</v>
+        <v>1.019185792146118</v>
       </c>
       <c r="P18">
-        <v>1.00010137399215</v>
+        <v>1.00739186456621</v>
       </c>
       <c r="Q18">
-        <v>1.00010137399215</v>
+        <v>1.00739186456621</v>
       </c>
       <c r="R18">
-        <v>1.000037740195664</v>
+        <v>1.002794376506849</v>
       </c>
       <c r="S18">
-        <v>1.000037740195664</v>
+        <v>1.002794376506849</v>
       </c>
       <c r="T18">
-        <v>1.000013696654536</v>
+        <v>1.000970975388128</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9996392566565201</v>
+        <v>1.003952777368421</v>
       </c>
       <c r="D19">
-        <v>1.001427991190117</v>
+        <v>0.9847224236842105</v>
       </c>
       <c r="E19">
-        <v>0.9996450872022719</v>
+        <v>1.003579299473684</v>
       </c>
       <c r="F19">
-        <v>0.9996392566565201</v>
+        <v>0.9847224236842105</v>
       </c>
       <c r="G19">
-        <v>0.9990546828882358</v>
+        <v>1.003579299473684</v>
       </c>
       <c r="H19">
-        <v>1.000784040606523</v>
+        <v>1.010611881052632</v>
       </c>
       <c r="I19">
-        <v>0.9996433842722557</v>
+        <v>0.9915108994736841</v>
       </c>
       <c r="J19">
-        <v>1.001427991190117</v>
+        <v>1.003843893157895</v>
       </c>
       <c r="K19">
-        <v>0.9996392566565201</v>
+        <v>1.003579299473684</v>
       </c>
       <c r="L19">
-        <v>0.9996450872022719</v>
+        <v>1.003952777368421</v>
       </c>
       <c r="M19">
-        <v>1.000536539196195</v>
+        <v>0.9943376005263158</v>
       </c>
       <c r="N19">
-        <v>1.000536539196195</v>
+        <v>0.9943376005263158</v>
       </c>
       <c r="O19">
-        <v>1.000619039666304</v>
+        <v>0.9933953668421053</v>
       </c>
       <c r="P19">
-        <v>1.000237445016303</v>
+        <v>0.9974181668421053</v>
       </c>
       <c r="Q19">
-        <v>1.000237445016303</v>
+        <v>0.9974181668421053</v>
       </c>
       <c r="R19">
-        <v>1.000087897926357</v>
+        <v>0.9989584500000001</v>
       </c>
       <c r="S19">
-        <v>1.000087897926357</v>
+        <v>0.9989584500000001</v>
       </c>
       <c r="T19">
-        <v>1.000032407135987</v>
+        <v>0.9997035290350879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.006396526842105</v>
+      </c>
+      <c r="D20">
+        <v>0.9744232884210525</v>
+      </c>
+      <c r="E20">
+        <v>1.006389938421053</v>
+      </c>
+      <c r="F20">
+        <v>0.9744232884210525</v>
+      </c>
+      <c r="G20">
+        <v>1.006389938421053</v>
+      </c>
+      <c r="H20">
+        <v>1.017058677894737</v>
+      </c>
+      <c r="I20">
+        <v>0.9859312868421052</v>
+      </c>
+      <c r="J20">
+        <v>1.006394599473684</v>
+      </c>
+      <c r="K20">
+        <v>1.006389938421053</v>
+      </c>
+      <c r="L20">
+        <v>1.006396526842105</v>
+      </c>
+      <c r="M20">
+        <v>0.9904099076315789</v>
+      </c>
+      <c r="N20">
+        <v>0.9904099076315789</v>
+      </c>
+      <c r="O20">
+        <v>0.9889170340350876</v>
+      </c>
+      <c r="P20">
+        <v>0.9957365845614033</v>
+      </c>
+      <c r="Q20">
+        <v>0.9957365845614033</v>
+      </c>
+      <c r="R20">
+        <v>0.9983999230263156</v>
+      </c>
+      <c r="S20">
+        <v>0.9983999230263156</v>
+      </c>
+      <c r="T20">
+        <v>0.9994323863157893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.002724931667661</v>
+      </c>
+      <c r="D21">
+        <v>0.9897079552393377</v>
+      </c>
+      <c r="E21">
+        <v>1.00229955870053</v>
+      </c>
+      <c r="F21">
+        <v>0.9897079552393377</v>
+      </c>
+      <c r="G21">
+        <v>1.00229955870053</v>
+      </c>
+      <c r="H21">
+        <v>1.007347508454681</v>
+      </c>
+      <c r="I21">
+        <v>0.9942409311711703</v>
+      </c>
+      <c r="J21">
+        <v>1.002600916710594</v>
+      </c>
+      <c r="K21">
+        <v>1.00229955870053</v>
+      </c>
+      <c r="L21">
+        <v>1.002724931667661</v>
+      </c>
+      <c r="M21">
+        <v>0.9962164434534996</v>
+      </c>
+      <c r="N21">
+        <v>0.9962164434534996</v>
+      </c>
+      <c r="O21">
+        <v>0.9955579393593897</v>
+      </c>
+      <c r="P21">
+        <v>0.9982441485358432</v>
+      </c>
+      <c r="Q21">
+        <v>0.9982441485358432</v>
+      </c>
+      <c r="R21">
+        <v>0.9992580010770149</v>
+      </c>
+      <c r="S21">
+        <v>0.9992580010770149</v>
+      </c>
+      <c r="T21">
+        <v>0.9998203003239957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000606737637396</v>
+      </c>
+      <c r="D22">
+        <v>0.9973229015443735</v>
+      </c>
+      <c r="E22">
+        <v>1.00078182513898</v>
+      </c>
+      <c r="F22">
+        <v>0.9973229015443735</v>
+      </c>
+      <c r="G22">
+        <v>1.00078182513898</v>
+      </c>
+      <c r="H22">
+        <v>1.001584642071828</v>
+      </c>
+      <c r="I22">
+        <v>0.9985681129572284</v>
+      </c>
+      <c r="J22">
+        <v>1.00065779050995</v>
+      </c>
+      <c r="K22">
+        <v>1.00078182513898</v>
+      </c>
+      <c r="L22">
+        <v>1.000606737637396</v>
+      </c>
+      <c r="M22">
+        <v>0.9989648195908847</v>
+      </c>
+      <c r="N22">
+        <v>0.9989648195908847</v>
+      </c>
+      <c r="O22">
+        <v>0.9988325840463327</v>
+      </c>
+      <c r="P22">
+        <v>0.9995704881069165</v>
+      </c>
+      <c r="Q22">
+        <v>0.9995704881069164</v>
+      </c>
+      <c r="R22">
+        <v>0.9998733223649323</v>
+      </c>
+      <c r="S22">
+        <v>0.9998733223649323</v>
+      </c>
+      <c r="T22">
+        <v>0.9999203349766259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.001628178870439</v>
+      </c>
+      <c r="D23">
+        <v>0.9930606403511493</v>
+      </c>
+      <c r="E23">
+        <v>1.001926814300016</v>
+      </c>
+      <c r="F23">
+        <v>0.9930606403511493</v>
+      </c>
+      <c r="G23">
+        <v>1.001926814300016</v>
+      </c>
+      <c r="H23">
+        <v>1.004284944662976</v>
+      </c>
+      <c r="I23">
+        <v>0.9962524615799423</v>
+      </c>
+      <c r="J23">
+        <v>1.001715254269505</v>
+      </c>
+      <c r="K23">
+        <v>1.001926814300016</v>
+      </c>
+      <c r="L23">
+        <v>1.001628178870439</v>
+      </c>
+      <c r="M23">
+        <v>0.997344409610794</v>
+      </c>
+      <c r="N23">
+        <v>0.997344409610794</v>
+      </c>
+      <c r="O23">
+        <v>0.9969804269338435</v>
+      </c>
+      <c r="P23">
+        <v>0.9988718778405344</v>
+      </c>
+      <c r="Q23">
+        <v>0.9988718778405344</v>
+      </c>
+      <c r="R23">
+        <v>0.9996356119554047</v>
+      </c>
+      <c r="S23">
+        <v>0.9996356119554047</v>
+      </c>
+      <c r="T23">
+        <v>0.9998113823390044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000463792942587</v>
+      </c>
+      <c r="D24">
+        <v>0.9983240710954566</v>
+      </c>
+      <c r="E24">
+        <v>1.000338328286865</v>
+      </c>
+      <c r="F24">
+        <v>0.9983240710954566</v>
+      </c>
+      <c r="G24">
+        <v>1.000338328286865</v>
+      </c>
+      <c r="H24">
+        <v>1.001260677753924</v>
+      </c>
+      <c r="I24">
+        <v>0.9990492061484643</v>
+      </c>
+      <c r="J24">
+        <v>1.000427214557603</v>
+      </c>
+      <c r="K24">
+        <v>1.000338328286865</v>
+      </c>
+      <c r="L24">
+        <v>1.000463792942587</v>
+      </c>
+      <c r="M24">
+        <v>0.999393932019022</v>
+      </c>
+      <c r="N24">
+        <v>0.999393932019022</v>
+      </c>
+      <c r="O24">
+        <v>0.9992790233955028</v>
+      </c>
+      <c r="P24">
+        <v>0.9997087307749696</v>
+      </c>
+      <c r="Q24">
+        <v>0.9997087307749696</v>
+      </c>
+      <c r="R24">
+        <v>0.9998661301529435</v>
+      </c>
+      <c r="S24">
+        <v>0.9998661301529435</v>
+      </c>
+      <c r="T24">
+        <v>0.9999772151308166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.009885808848352</v>
+      </c>
+      <c r="D25">
+        <v>0.9602868156588219</v>
+      </c>
+      <c r="E25">
+        <v>1.01000477125186</v>
+      </c>
+      <c r="F25">
+        <v>0.9602868156588219</v>
+      </c>
+      <c r="G25">
+        <v>1.01000477125186</v>
+      </c>
+      <c r="H25">
+        <v>1.026339519567837</v>
+      </c>
+      <c r="I25">
+        <v>0.978185285694646</v>
+      </c>
+      <c r="J25">
+        <v>1.009920491676321</v>
+      </c>
+      <c r="K25">
+        <v>1.01000477125186</v>
+      </c>
+      <c r="L25">
+        <v>1.009885808848352</v>
+      </c>
+      <c r="M25">
+        <v>0.9850863122535871</v>
+      </c>
+      <c r="N25">
+        <v>0.9850863122535871</v>
+      </c>
+      <c r="O25">
+        <v>0.9827859700672734</v>
+      </c>
+      <c r="P25">
+        <v>0.9933924652530114</v>
+      </c>
+      <c r="Q25">
+        <v>0.9933924652530114</v>
+      </c>
+      <c r="R25">
+        <v>0.9975455417527236</v>
+      </c>
+      <c r="S25">
+        <v>0.9975455417527236</v>
+      </c>
+      <c r="T25">
+        <v>0.9991037821163063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.002610240226877</v>
+      </c>
+      <c r="D26">
+        <v>0.9896280724699763</v>
+      </c>
+      <c r="E26">
+        <v>1.002561924092682</v>
+      </c>
+      <c r="F26">
+        <v>0.9896280724699763</v>
+      </c>
+      <c r="G26">
+        <v>1.002561924092682</v>
+      </c>
+      <c r="H26">
+        <v>1.006969844814552</v>
+      </c>
+      <c r="I26">
+        <v>0.9942842547364354</v>
+      </c>
+      <c r="J26">
+        <v>1.00259615183624</v>
+      </c>
+      <c r="K26">
+        <v>1.002561924092682</v>
+      </c>
+      <c r="L26">
+        <v>1.002610240226877</v>
+      </c>
+      <c r="M26">
+        <v>0.9961191563484266</v>
+      </c>
+      <c r="N26">
+        <v>0.9961191563484266</v>
+      </c>
+      <c r="O26">
+        <v>0.9955075224777629</v>
+      </c>
+      <c r="P26">
+        <v>0.9982667455965117</v>
+      </c>
+      <c r="Q26">
+        <v>0.9982667455965117</v>
+      </c>
+      <c r="R26">
+        <v>0.9993405402205543</v>
+      </c>
+      <c r="S26">
+        <v>0.9993405402205543</v>
+      </c>
+      <c r="T26">
+        <v>0.9997750813627938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9981862414686992</v>
+      </c>
+      <c r="D27">
+        <v>1.00724474927493</v>
+      </c>
+      <c r="E27">
+        <v>0.9981934321675275</v>
+      </c>
+      <c r="F27">
+        <v>1.00724474927493</v>
+      </c>
+      <c r="G27">
+        <v>0.9981934321675275</v>
+      </c>
+      <c r="H27">
+        <v>0.9951619627560849</v>
+      </c>
+      <c r="I27">
+        <v>1.003986286561895</v>
+      </c>
+      <c r="J27">
+        <v>0.9981883482093247</v>
+      </c>
+      <c r="K27">
+        <v>0.9981934321675275</v>
+      </c>
+      <c r="L27">
+        <v>0.9981862414686992</v>
+      </c>
+      <c r="M27">
+        <v>1.002715495371814</v>
+      </c>
+      <c r="N27">
+        <v>1.002715495371814</v>
+      </c>
+      <c r="O27">
+        <v>1.003139092435175</v>
+      </c>
+      <c r="P27">
+        <v>1.001208140970385</v>
+      </c>
+      <c r="Q27">
+        <v>1.001208140970385</v>
+      </c>
+      <c r="R27">
+        <v>1.000454463769671</v>
+      </c>
+      <c r="S27">
+        <v>1.000454463769671</v>
+      </c>
+      <c r="T27">
+        <v>1.000160170073077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.002114922908906</v>
+      </c>
+      <c r="D28">
+        <v>0.9916039621993677</v>
+      </c>
+      <c r="E28">
+        <v>1.002070398310387</v>
+      </c>
+      <c r="F28">
+        <v>0.9916039621993677</v>
+      </c>
+      <c r="G28">
+        <v>1.002070398310387</v>
+      </c>
+      <c r="H28">
+        <v>1.005648245832334</v>
+      </c>
+      <c r="I28">
+        <v>0.9953718739847448</v>
+      </c>
+      <c r="J28">
+        <v>1.002101925236739</v>
+      </c>
+      <c r="K28">
+        <v>1.002070398310387</v>
+      </c>
+      <c r="L28">
+        <v>1.002114922908906</v>
+      </c>
+      <c r="M28">
+        <v>0.9968594425541368</v>
+      </c>
+      <c r="N28">
+        <v>0.9968594425541368</v>
+      </c>
+      <c r="O28">
+        <v>0.9963635863643395</v>
+      </c>
+      <c r="P28">
+        <v>0.9985964278062203</v>
+      </c>
+      <c r="Q28">
+        <v>0.9985964278062203</v>
+      </c>
+      <c r="R28">
+        <v>0.999464920432262</v>
+      </c>
+      <c r="S28">
+        <v>0.999464920432262</v>
+      </c>
+      <c r="T28">
+        <v>0.9998185547454131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.007580556009474</v>
+      </c>
+      <c r="D29">
+        <v>0.9696859848469154</v>
+      </c>
+      <c r="E29">
+        <v>1.007574876011742</v>
+      </c>
+      <c r="F29">
+        <v>0.9696859848469154</v>
+      </c>
+      <c r="G29">
+        <v>1.007574876011742</v>
+      </c>
+      <c r="H29">
+        <v>1.020215843011948</v>
+      </c>
+      <c r="I29">
+        <v>0.9833259797293258</v>
+      </c>
+      <c r="J29">
+        <v>1.007578876826781</v>
+      </c>
+      <c r="K29">
+        <v>1.007574876011742</v>
+      </c>
+      <c r="L29">
+        <v>1.007580556009474</v>
+      </c>
+      <c r="M29">
+        <v>0.9886332704281948</v>
+      </c>
+      <c r="N29">
+        <v>0.9886332704281948</v>
+      </c>
+      <c r="O29">
+        <v>0.9868641735285718</v>
+      </c>
+      <c r="P29">
+        <v>0.9949471389560438</v>
+      </c>
+      <c r="Q29">
+        <v>0.9949471389560438</v>
+      </c>
+      <c r="R29">
+        <v>0.9981040732199682</v>
+      </c>
+      <c r="S29">
+        <v>0.9981040732199682</v>
+      </c>
+      <c r="T29">
+        <v>0.999327019406031</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002663928160471</v>
+        <v>0.9955799824068393</v>
       </c>
       <c r="D4">
-        <v>0.9893454911472179</v>
+        <v>1.017732027400873</v>
       </c>
       <c r="E4">
-        <v>1.00266308129584</v>
+        <v>0.9955436118146983</v>
       </c>
       <c r="F4">
-        <v>0.9893454911472179</v>
+        <v>1.017732027400873</v>
       </c>
       <c r="G4">
-        <v>1.00266308129584</v>
+        <v>0.9955436118146983</v>
       </c>
       <c r="H4">
-        <v>1.00710397695084</v>
+        <v>0.9882202176661367</v>
       </c>
       <c r="I4">
-        <v>0.994139824433027</v>
+        <v>1.009744198633545</v>
       </c>
       <c r="J4">
-        <v>1.002663682799783</v>
+        <v>0.9955693795253444</v>
       </c>
       <c r="K4">
-        <v>1.00266308129584</v>
+        <v>0.9955436118146983</v>
       </c>
       <c r="L4">
-        <v>1.002663928160471</v>
+        <v>0.9955799824068393</v>
       </c>
       <c r="M4">
-        <v>0.9960047096538444</v>
+        <v>1.006656004903856</v>
       </c>
       <c r="N4">
-        <v>0.9960047096538444</v>
+        <v>1.006656004903856</v>
       </c>
       <c r="O4">
-        <v>0.9953830812469052</v>
+        <v>1.007685402813752</v>
       </c>
       <c r="P4">
-        <v>0.998224166867843</v>
+        <v>1.002951873874137</v>
       </c>
       <c r="Q4">
-        <v>0.998224166867843</v>
+        <v>1.002951873874137</v>
       </c>
       <c r="R4">
-        <v>0.9993338954748423</v>
+        <v>1.001099808359277</v>
       </c>
       <c r="S4">
-        <v>0.9993338954748423</v>
+        <v>1.001099808359277</v>
       </c>
       <c r="T4">
-        <v>0.9997633307978631</v>
+        <v>1.000398236241239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9949976620749289</v>
+        <v>1.009210368197925</v>
       </c>
       <c r="D5">
-        <v>1.020058886930838</v>
+        <v>0.9631798984689328</v>
       </c>
       <c r="E5">
-        <v>0.9949629863832838</v>
+        <v>1.009195395637806</v>
       </c>
       <c r="F5">
-        <v>1.020058886930838</v>
+        <v>0.9631798984689328</v>
       </c>
       <c r="G5">
-        <v>0.9949629863832838</v>
+        <v>1.009195395637806</v>
       </c>
       <c r="H5">
-        <v>0.9866670408645514</v>
+        <v>1.024563853974221</v>
       </c>
       <c r="I5">
-        <v>1.011024362716139</v>
+        <v>0.9797454824664167</v>
       </c>
       <c r="J5">
-        <v>0.9949875531700276</v>
+        <v>1.009205996931287</v>
       </c>
       <c r="K5">
-        <v>0.9949629863832838</v>
+        <v>1.009195395637806</v>
       </c>
       <c r="L5">
-        <v>0.9949976620749289</v>
+        <v>1.009210368197925</v>
       </c>
       <c r="M5">
-        <v>1.007528274502884</v>
+        <v>0.9861951333334289</v>
       </c>
       <c r="N5">
-        <v>1.007528274502884</v>
+        <v>0.9861951333334289</v>
       </c>
       <c r="O5">
-        <v>1.008693637240635</v>
+        <v>0.9840452497110915</v>
       </c>
       <c r="P5">
-        <v>1.003339845129684</v>
+        <v>0.993861887434888</v>
       </c>
       <c r="Q5">
-        <v>1.003339845129684</v>
+        <v>0.993861887434888</v>
       </c>
       <c r="R5">
-        <v>1.001245630443084</v>
+        <v>0.9976952644856175</v>
       </c>
       <c r="S5">
-        <v>1.001245630443084</v>
+        <v>0.9976952644856175</v>
       </c>
       <c r="T5">
-        <v>1.000449748689962</v>
+        <v>0.9991834992794315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9827026386248929</v>
+        <v>1.002663928160471</v>
       </c>
       <c r="D6">
-        <v>1.069436575668115</v>
+        <v>0.9893454911472179</v>
       </c>
       <c r="E6">
-        <v>0.9825296455986897</v>
+        <v>1.00266308129584</v>
       </c>
       <c r="F6">
-        <v>1.069436575668115</v>
+        <v>0.9893454911472179</v>
       </c>
       <c r="G6">
-        <v>0.9825296455986897</v>
+        <v>1.00266308129584</v>
       </c>
       <c r="H6">
-        <v>0.953906656312446</v>
+        <v>1.00710397695084</v>
       </c>
       <c r="I6">
-        <v>1.038150064817806</v>
+        <v>0.994139824433027</v>
       </c>
       <c r="J6">
-        <v>0.982652201239355</v>
+        <v>1.002663682799783</v>
       </c>
       <c r="K6">
-        <v>0.9825296455986897</v>
+        <v>1.00266308129584</v>
       </c>
       <c r="L6">
-        <v>0.9827026386248929</v>
+        <v>1.002663928160471</v>
       </c>
       <c r="M6">
-        <v>1.026069607146504</v>
+        <v>0.9960047096538444</v>
       </c>
       <c r="N6">
-        <v>1.026069607146504</v>
+        <v>0.9960047096538444</v>
       </c>
       <c r="O6">
-        <v>1.030096426370271</v>
+        <v>0.9953830812469052</v>
       </c>
       <c r="P6">
-        <v>1.011556286630566</v>
+        <v>0.998224166867843</v>
       </c>
       <c r="Q6">
-        <v>1.011556286630566</v>
+        <v>0.998224166867843</v>
       </c>
       <c r="R6">
-        <v>1.004299626372597</v>
+        <v>0.9993338954748423</v>
       </c>
       <c r="S6">
-        <v>1.004299626372597</v>
+        <v>0.9993338954748423</v>
       </c>
       <c r="T6">
-        <v>1.001562963710217</v>
+        <v>0.9997633307978631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995066336133799</v>
+        <v>0.9949976620749289</v>
       </c>
       <c r="D7">
-        <v>1.001965169718086</v>
+        <v>1.020058886930838</v>
       </c>
       <c r="E7">
-        <v>0.9995124412818406</v>
+        <v>0.9949629863832838</v>
       </c>
       <c r="F7">
-        <v>1.001965169718086</v>
+        <v>1.020058886930838</v>
       </c>
       <c r="G7">
-        <v>0.9995124412818406</v>
+        <v>0.9949629863832838</v>
       </c>
       <c r="H7">
-        <v>0.9986832532268719</v>
+        <v>0.9866670408645514</v>
       </c>
       <c r="I7">
-        <v>1.001082188924882</v>
+        <v>1.011024362716139</v>
       </c>
       <c r="J7">
-        <v>0.9995083272848116</v>
+        <v>0.9949875531700276</v>
       </c>
       <c r="K7">
-        <v>0.9995124412818406</v>
+        <v>0.9949629863832838</v>
       </c>
       <c r="L7">
-        <v>0.9995066336133799</v>
+        <v>0.9949976620749289</v>
       </c>
       <c r="M7">
-        <v>1.000735901665733</v>
+        <v>1.007528274502884</v>
       </c>
       <c r="N7">
-        <v>1.000735901665733</v>
+        <v>1.007528274502884</v>
       </c>
       <c r="O7">
-        <v>1.000851330752116</v>
+        <v>1.008693637240635</v>
       </c>
       <c r="P7">
-        <v>1.000328081537769</v>
+        <v>1.003339845129684</v>
       </c>
       <c r="Q7">
-        <v>1.000328081537769</v>
+        <v>1.003339845129684</v>
       </c>
       <c r="R7">
-        <v>1.000124171473787</v>
+        <v>1.001245630443084</v>
       </c>
       <c r="S7">
-        <v>1.000124171473787</v>
+        <v>1.001245630443084</v>
       </c>
       <c r="T7">
-        <v>1.000043002341645</v>
+        <v>1.000449748689962</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999565484448533</v>
+        <v>0.9827026386248929</v>
       </c>
       <c r="D8">
-        <v>1.000172314683491</v>
+        <v>1.069436575668115</v>
       </c>
       <c r="E8">
-        <v>0.9999575928523742</v>
+        <v>0.9825296455986897</v>
       </c>
       <c r="F8">
-        <v>1.000172314683491</v>
+        <v>1.069436575668115</v>
       </c>
       <c r="G8">
-        <v>0.9999575928523742</v>
+        <v>0.9825296455986897</v>
       </c>
       <c r="H8">
-        <v>0.999883933753003</v>
+        <v>0.953906656312446</v>
       </c>
       <c r="I8">
-        <v>1.000095015443496</v>
+        <v>1.038150064817806</v>
       </c>
       <c r="J8">
-        <v>0.9999568539160034</v>
+        <v>0.982652201239355</v>
       </c>
       <c r="K8">
-        <v>0.9999575928523742</v>
+        <v>0.9825296455986897</v>
       </c>
       <c r="L8">
-        <v>0.9999565484448533</v>
+        <v>0.9827026386248929</v>
       </c>
       <c r="M8">
-        <v>1.000064431564172</v>
+        <v>1.026069607146504</v>
       </c>
       <c r="N8">
-        <v>1.000064431564172</v>
+        <v>1.026069607146504</v>
       </c>
       <c r="O8">
-        <v>1.000074626190613</v>
+        <v>1.030096426370271</v>
       </c>
       <c r="P8">
-        <v>1.00002881866024</v>
+        <v>1.011556286630566</v>
       </c>
       <c r="Q8">
-        <v>1.00002881866024</v>
+        <v>1.011556286630566</v>
       </c>
       <c r="R8">
-        <v>1.000011012208273</v>
+        <v>1.004299626372597</v>
       </c>
       <c r="S8">
-        <v>1.000011012208273</v>
+        <v>1.004299626372597</v>
       </c>
       <c r="T8">
-        <v>1.00000370984887</v>
+        <v>1.001562963710217</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9990445177703934</v>
+        <v>0.9995066336133799</v>
       </c>
       <c r="D9">
-        <v>1.003811004089877</v>
+        <v>1.001965169718086</v>
       </c>
       <c r="E9">
-        <v>0.9990521657258106</v>
+        <v>0.9995124412818406</v>
       </c>
       <c r="F9">
-        <v>1.003811004089877</v>
+        <v>1.001965169718086</v>
       </c>
       <c r="G9">
-        <v>0.9990521657258106</v>
+        <v>0.9995124412818406</v>
       </c>
       <c r="H9">
-        <v>0.9974505937605196</v>
+        <v>0.9986832532268719</v>
       </c>
       <c r="I9">
-        <v>1.002097821896416</v>
+        <v>1.001082188924882</v>
       </c>
       <c r="J9">
-        <v>0.9990467475825771</v>
+        <v>0.9995083272848116</v>
       </c>
       <c r="K9">
-        <v>0.9990521657258106</v>
+        <v>0.9995124412818406</v>
       </c>
       <c r="L9">
-        <v>0.9990445177703934</v>
+        <v>0.9995066336133799</v>
       </c>
       <c r="M9">
-        <v>1.001427760930135</v>
+        <v>1.000735901665733</v>
       </c>
       <c r="N9">
-        <v>1.001427760930135</v>
+        <v>1.000735901665733</v>
       </c>
       <c r="O9">
-        <v>1.001651114585562</v>
+        <v>1.000851330752116</v>
       </c>
       <c r="P9">
-        <v>1.000635895862027</v>
+        <v>1.000328081537769</v>
       </c>
       <c r="Q9">
-        <v>1.000635895862027</v>
+        <v>1.000328081537769</v>
       </c>
       <c r="R9">
-        <v>1.000239963327973</v>
+        <v>1.000124171473787</v>
       </c>
       <c r="S9">
-        <v>1.000239963327973</v>
+        <v>1.000124171473787</v>
       </c>
       <c r="T9">
-        <v>1.000083808470932</v>
+        <v>1.000043002341645</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9824455286893193</v>
+        <v>0.9999565484448533</v>
       </c>
       <c r="D10">
-        <v>1.070472737844497</v>
+        <v>1.000172314683491</v>
       </c>
       <c r="E10">
-        <v>0.9822671298941084</v>
+        <v>0.9999575928523742</v>
       </c>
       <c r="F10">
-        <v>1.070472737844497</v>
+        <v>1.000172314683491</v>
       </c>
       <c r="G10">
-        <v>0.9822671298941084</v>
+        <v>0.9999575928523742</v>
       </c>
       <c r="H10">
-        <v>0.9532220602718665</v>
+        <v>0.999883933753003</v>
       </c>
       <c r="I10">
-        <v>1.038718702374367</v>
+        <v>1.000095015443496</v>
       </c>
       <c r="J10">
-        <v>0.9823935152468015</v>
+        <v>0.9999568539160034</v>
       </c>
       <c r="K10">
-        <v>0.9822671298941084</v>
+        <v>0.9999575928523742</v>
       </c>
       <c r="L10">
-        <v>0.9824455286893193</v>
+        <v>0.9999565484448533</v>
       </c>
       <c r="M10">
-        <v>1.026459133266908</v>
+        <v>1.000064431564172</v>
       </c>
       <c r="N10">
-        <v>1.026459133266908</v>
+        <v>1.000064431564172</v>
       </c>
       <c r="O10">
-        <v>1.030545656302728</v>
+        <v>1.000074626190613</v>
       </c>
       <c r="P10">
-        <v>1.011728465475975</v>
+        <v>1.00002881866024</v>
       </c>
       <c r="Q10">
-        <v>1.011728465475975</v>
+        <v>1.00002881866024</v>
       </c>
       <c r="R10">
-        <v>1.004363131580508</v>
+        <v>1.000011012208273</v>
       </c>
       <c r="S10">
-        <v>1.004363131580508</v>
+        <v>1.000011012208273</v>
       </c>
       <c r="T10">
-        <v>1.001586612386827</v>
+        <v>1.00000370984887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001065495688795</v>
+        <v>0.9990445177703934</v>
       </c>
       <c r="D11">
-        <v>0.9956609743520584</v>
+        <v>1.003811004089877</v>
       </c>
       <c r="E11">
-        <v>1.001119424644171</v>
+        <v>0.9990521657258106</v>
       </c>
       <c r="F11">
-        <v>0.9956609743520584</v>
+        <v>1.003811004089877</v>
       </c>
       <c r="G11">
-        <v>1.001119424644171</v>
+        <v>0.9990521657258106</v>
       </c>
       <c r="H11">
-        <v>1.002831052301122</v>
+        <v>0.9974505937605196</v>
       </c>
       <c r="I11">
-        <v>0.9976260171683459</v>
+        <v>1.002097821896416</v>
       </c>
       <c r="J11">
-        <v>1.001081219007493</v>
+        <v>0.9990467475825771</v>
       </c>
       <c r="K11">
-        <v>1.001119424644171</v>
+        <v>0.9990521657258106</v>
       </c>
       <c r="L11">
-        <v>1.001065495688795</v>
+        <v>0.9990445177703934</v>
       </c>
       <c r="M11">
-        <v>0.9983632350204268</v>
+        <v>1.001427760930135</v>
       </c>
       <c r="N11">
-        <v>0.9983632350204268</v>
+        <v>1.001427760930135</v>
       </c>
       <c r="O11">
-        <v>0.9981174957363997</v>
+        <v>1.001651114585562</v>
       </c>
       <c r="P11">
-        <v>0.9992819648950082</v>
+        <v>1.000635895862027</v>
       </c>
       <c r="Q11">
-        <v>0.9992819648950082</v>
+        <v>1.000635895862027</v>
       </c>
       <c r="R11">
-        <v>0.9997413298322988</v>
+        <v>1.000239963327973</v>
       </c>
       <c r="S11">
-        <v>0.9997413298322988</v>
+        <v>1.000239963327973</v>
       </c>
       <c r="T11">
-        <v>0.9998973638603309</v>
+        <v>1.000083808470932</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9948276541052654</v>
+        <v>0.9824455286893193</v>
       </c>
       <c r="D12">
-        <v>1.020770161894738</v>
+        <v>1.070472737844497</v>
       </c>
       <c r="E12">
-        <v>0.9947711098315786</v>
+        <v>0.9822671298941084</v>
       </c>
       <c r="F12">
-        <v>1.020770161894738</v>
+        <v>1.070472737844497</v>
       </c>
       <c r="G12">
-        <v>0.9947711098315786</v>
+        <v>0.9822671298941084</v>
       </c>
       <c r="H12">
-        <v>0.9862178508421059</v>
+        <v>0.9532220602718665</v>
       </c>
       <c r="I12">
-        <v>1.01141050234737</v>
+        <v>1.038718702374367</v>
       </c>
       <c r="J12">
-        <v>0.9948111689263149</v>
+        <v>0.9823935152468015</v>
       </c>
       <c r="K12">
-        <v>0.9947711098315786</v>
+        <v>0.9822671298941084</v>
       </c>
       <c r="L12">
-        <v>0.9948276541052654</v>
+        <v>0.9824455286893193</v>
       </c>
       <c r="M12">
-        <v>1.007798908000002</v>
+        <v>1.026459133266908</v>
       </c>
       <c r="N12">
-        <v>1.007798908000002</v>
+        <v>1.026459133266908</v>
       </c>
       <c r="O12">
-        <v>1.009002772782458</v>
+        <v>1.030545656302728</v>
       </c>
       <c r="P12">
-        <v>1.003456308610527</v>
+        <v>1.011728465475975</v>
       </c>
       <c r="Q12">
-        <v>1.003456308610527</v>
+        <v>1.011728465475975</v>
       </c>
       <c r="R12">
-        <v>1.00128500891579</v>
+        <v>1.004363131580508</v>
       </c>
       <c r="S12">
-        <v>1.00128500891579</v>
+        <v>1.004363131580508</v>
       </c>
       <c r="T12">
-        <v>1.000468074657896</v>
+        <v>1.001586612386827</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.003459787529534</v>
+        <v>1.001065495688795</v>
       </c>
       <c r="D13">
-        <v>0.9861540377158861</v>
+        <v>0.9956609743520584</v>
       </c>
       <c r="E13">
-        <v>1.003464559894419</v>
+        <v>1.001119424644171</v>
       </c>
       <c r="F13">
-        <v>0.9861540377158861</v>
+        <v>0.9956609743520584</v>
       </c>
       <c r="G13">
-        <v>1.003464559894419</v>
+        <v>1.001119424644171</v>
       </c>
       <c r="H13">
-        <v>1.009225194939853</v>
+        <v>1.002831052301122</v>
       </c>
       <c r="I13">
-        <v>0.9923858246697717</v>
+        <v>0.9976260171683459</v>
       </c>
       <c r="J13">
-        <v>1.00346117914602</v>
+        <v>1.001081219007493</v>
       </c>
       <c r="K13">
-        <v>1.003464559894419</v>
+        <v>1.001119424644171</v>
       </c>
       <c r="L13">
-        <v>1.003459787529534</v>
+        <v>1.001065495688795</v>
       </c>
       <c r="M13">
-        <v>0.9948069126227099</v>
+        <v>0.9983632350204268</v>
       </c>
       <c r="N13">
-        <v>0.9948069126227099</v>
+        <v>0.9983632350204268</v>
       </c>
       <c r="O13">
-        <v>0.9939998833050638</v>
+        <v>0.9981174957363997</v>
       </c>
       <c r="P13">
-        <v>0.9976927950466129</v>
+        <v>0.9992819648950082</v>
       </c>
       <c r="Q13">
-        <v>0.9976927950466131</v>
+        <v>0.9992819648950082</v>
       </c>
       <c r="R13">
-        <v>0.9991357362585647</v>
+        <v>0.9997413298322988</v>
       </c>
       <c r="S13">
-        <v>0.9991357362585647</v>
+        <v>0.9997413298322988</v>
       </c>
       <c r="T13">
-        <v>0.9996917639825806</v>
+        <v>0.9998973638603309</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9696726700000003</v>
+        <v>0.9948276541052654</v>
       </c>
       <c r="D14">
-        <v>1.1217596</v>
+        <v>1.020770161894738</v>
       </c>
       <c r="E14">
-        <v>0.9693574699999995</v>
+        <v>0.9947711098315786</v>
       </c>
       <c r="F14">
-        <v>1.1217596</v>
+        <v>1.020770161894738</v>
       </c>
       <c r="G14">
-        <v>0.9693574699999995</v>
+        <v>0.9947711098315786</v>
       </c>
       <c r="H14">
-        <v>0.9191871600000003</v>
+        <v>0.9862178508421059</v>
       </c>
       <c r="I14">
-        <v>1.0668948</v>
+        <v>1.01141050234737</v>
       </c>
       <c r="J14">
-        <v>0.9695807699999998</v>
+        <v>0.9948111689263149</v>
       </c>
       <c r="K14">
-        <v>0.9693574699999995</v>
+        <v>0.9947711098315786</v>
       </c>
       <c r="L14">
-        <v>0.9696726700000003</v>
+        <v>0.9948276541052654</v>
       </c>
       <c r="M14">
-        <v>1.045716135</v>
+        <v>1.007798908000002</v>
       </c>
       <c r="N14">
-        <v>1.045716135</v>
+        <v>1.007798908000002</v>
       </c>
       <c r="O14">
-        <v>1.05277569</v>
+        <v>1.009002772782458</v>
       </c>
       <c r="P14">
-        <v>1.020263246666667</v>
+        <v>1.003456308610527</v>
       </c>
       <c r="Q14">
-        <v>1.020263246666667</v>
+        <v>1.003456308610527</v>
       </c>
       <c r="R14">
-        <v>1.0075368025</v>
+        <v>1.00128500891579</v>
       </c>
       <c r="S14">
-        <v>1.0075368025</v>
+        <v>1.00128500891579</v>
       </c>
       <c r="T14">
-        <v>1.002742078333333</v>
+        <v>1.000468074657896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0113912</v>
+        <v>1.003459787529534</v>
       </c>
       <c r="D15">
-        <v>0.9526597999999999</v>
+        <v>0.9861540377158861</v>
       </c>
       <c r="E15">
-        <v>1.012634</v>
+        <v>1.003464559894419</v>
       </c>
       <c r="F15">
-        <v>0.9526597999999999</v>
+        <v>0.9861540377158861</v>
       </c>
       <c r="G15">
-        <v>1.012634</v>
+        <v>1.003464559894419</v>
       </c>
       <c r="H15">
-        <v>1.0301398</v>
+        <v>1.009225194939853</v>
       </c>
       <c r="I15">
-        <v>0.9742505199999999</v>
+        <v>0.9923858246697717</v>
       </c>
       <c r="J15">
-        <v>1.0117535</v>
+        <v>1.00346117914602</v>
       </c>
       <c r="K15">
-        <v>1.012634</v>
+        <v>1.003464559894419</v>
       </c>
       <c r="L15">
-        <v>1.0113912</v>
+        <v>1.003459787529534</v>
       </c>
       <c r="M15">
-        <v>0.9820255</v>
+        <v>0.9948069126227099</v>
       </c>
       <c r="N15">
-        <v>0.9820255</v>
+        <v>0.9948069126227099</v>
       </c>
       <c r="O15">
-        <v>0.97943384</v>
+        <v>0.9939998833050638</v>
       </c>
       <c r="P15">
-        <v>0.9922283333333333</v>
+        <v>0.9976927950466129</v>
       </c>
       <c r="Q15">
-        <v>0.9922283333333333</v>
+        <v>0.9976927950466131</v>
       </c>
       <c r="R15">
-        <v>0.99732975</v>
+        <v>0.9991357362585647</v>
       </c>
       <c r="S15">
-        <v>0.99732975</v>
+        <v>0.9991357362585647</v>
       </c>
       <c r="T15">
-        <v>0.9988048033333333</v>
+        <v>0.9996917639825806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0193616</v>
+        <v>0.9696726700000003</v>
       </c>
       <c r="D16">
-        <v>0.92240399</v>
+        <v>1.1217596</v>
       </c>
       <c r="E16">
-        <v>1.0194663</v>
+        <v>0.9693574699999995</v>
       </c>
       <c r="F16">
-        <v>0.92240399</v>
+        <v>1.1217596</v>
       </c>
       <c r="G16">
-        <v>1.0194663</v>
+        <v>0.9693574699999995</v>
       </c>
       <c r="H16">
-        <v>1.051611</v>
+        <v>0.9191871600000003</v>
       </c>
       <c r="I16">
-        <v>0.9573464299999999</v>
+        <v>1.0668948</v>
       </c>
       <c r="J16">
-        <v>1.0193921</v>
+        <v>0.9695807699999998</v>
       </c>
       <c r="K16">
-        <v>1.0194663</v>
+        <v>0.9693574699999995</v>
       </c>
       <c r="L16">
-        <v>1.0193616</v>
+        <v>0.9696726700000003</v>
       </c>
       <c r="M16">
-        <v>0.9708827950000001</v>
+        <v>1.045716135</v>
       </c>
       <c r="N16">
-        <v>0.9708827950000001</v>
+        <v>1.045716135</v>
       </c>
       <c r="O16">
-        <v>0.9663706733333334</v>
+        <v>1.05277569</v>
       </c>
       <c r="P16">
-        <v>0.9870772966666667</v>
+        <v>1.020263246666667</v>
       </c>
       <c r="Q16">
-        <v>0.9870772966666665</v>
+        <v>1.020263246666667</v>
       </c>
       <c r="R16">
-        <v>0.9951745474999999</v>
+        <v>1.0075368025</v>
       </c>
       <c r="S16">
-        <v>0.9951745474999999</v>
+        <v>1.0075368025</v>
       </c>
       <c r="T16">
-        <v>0.9982635699999999</v>
+        <v>1.002742078333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0218585</v>
+        <v>1.0113912</v>
       </c>
       <c r="D17">
-        <v>0.9130504</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="E17">
-        <v>1.0215194</v>
+        <v>1.012634</v>
       </c>
       <c r="F17">
-        <v>0.9130504</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="G17">
-        <v>1.0215194</v>
+        <v>1.012634</v>
       </c>
       <c r="H17">
-        <v>1.0583539</v>
+        <v>1.0301398</v>
       </c>
       <c r="I17">
-        <v>0.95209925</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="J17">
-        <v>1.0217596</v>
+        <v>1.0117535</v>
       </c>
       <c r="K17">
-        <v>1.0215194</v>
+        <v>1.012634</v>
       </c>
       <c r="L17">
-        <v>1.0218585</v>
+        <v>1.0113912</v>
       </c>
       <c r="M17">
-        <v>0.96745445</v>
+        <v>0.9820255</v>
       </c>
       <c r="N17">
-        <v>0.96745445</v>
+        <v>0.9820255</v>
       </c>
       <c r="O17">
-        <v>0.9623360499999999</v>
+        <v>0.97943384</v>
       </c>
       <c r="P17">
-        <v>0.9854761</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q17">
-        <v>0.9854761000000001</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R17">
-        <v>0.9944869250000001</v>
+        <v>0.99732975</v>
       </c>
       <c r="S17">
-        <v>0.9944869250000001</v>
+        <v>0.99732975</v>
       </c>
       <c r="T17">
-        <v>0.9981068416666666</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9888877309589039</v>
+        <v>1.0193616</v>
       </c>
       <c r="D18">
-        <v>1.044285950410959</v>
+        <v>0.92240399</v>
       </c>
       <c r="E18">
-        <v>0.989001912328767</v>
+        <v>1.0194663</v>
       </c>
       <c r="F18">
-        <v>1.044285950410959</v>
+        <v>0.92240399</v>
       </c>
       <c r="G18">
-        <v>0.989001912328767</v>
+        <v>1.0194663</v>
       </c>
       <c r="H18">
-        <v>0.9703455435616437</v>
+        <v>1.051611</v>
       </c>
       <c r="I18">
-        <v>1.024383695068493</v>
+        <v>0.9573464299999999</v>
       </c>
       <c r="J18">
-        <v>0.9889210199999997</v>
+        <v>1.0193921</v>
       </c>
       <c r="K18">
-        <v>0.989001912328767</v>
+        <v>1.0194663</v>
       </c>
       <c r="L18">
-        <v>0.9888877309589039</v>
+        <v>1.0193616</v>
       </c>
       <c r="M18">
-        <v>1.016586840684931</v>
+        <v>0.9708827950000001</v>
       </c>
       <c r="N18">
-        <v>1.016586840684931</v>
+        <v>0.9708827950000001</v>
       </c>
       <c r="O18">
-        <v>1.019185792146118</v>
+        <v>0.9663706733333334</v>
       </c>
       <c r="P18">
-        <v>1.00739186456621</v>
+        <v>0.9870772966666667</v>
       </c>
       <c r="Q18">
-        <v>1.00739186456621</v>
+        <v>0.9870772966666665</v>
       </c>
       <c r="R18">
-        <v>1.002794376506849</v>
+        <v>0.9951745474999999</v>
       </c>
       <c r="S18">
-        <v>1.002794376506849</v>
+        <v>0.9951745474999999</v>
       </c>
       <c r="T18">
-        <v>1.000970975388128</v>
+        <v>0.9982635699999999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.003952777368421</v>
+        <v>1.0218585</v>
       </c>
       <c r="D19">
-        <v>0.9847224236842105</v>
+        <v>0.9130504</v>
       </c>
       <c r="E19">
-        <v>1.003579299473684</v>
+        <v>1.0215194</v>
       </c>
       <c r="F19">
-        <v>0.9847224236842105</v>
+        <v>0.9130504</v>
       </c>
       <c r="G19">
-        <v>1.003579299473684</v>
+        <v>1.0215194</v>
       </c>
       <c r="H19">
-        <v>1.010611881052632</v>
+        <v>1.0583539</v>
       </c>
       <c r="I19">
-        <v>0.9915108994736841</v>
+        <v>0.95209925</v>
       </c>
       <c r="J19">
-        <v>1.003843893157895</v>
+        <v>1.0217596</v>
       </c>
       <c r="K19">
-        <v>1.003579299473684</v>
+        <v>1.0215194</v>
       </c>
       <c r="L19">
-        <v>1.003952777368421</v>
+        <v>1.0218585</v>
       </c>
       <c r="M19">
-        <v>0.9943376005263158</v>
+        <v>0.96745445</v>
       </c>
       <c r="N19">
-        <v>0.9943376005263158</v>
+        <v>0.96745445</v>
       </c>
       <c r="O19">
-        <v>0.9933953668421053</v>
+        <v>0.9623360499999999</v>
       </c>
       <c r="P19">
-        <v>0.9974181668421053</v>
+        <v>0.9854761</v>
       </c>
       <c r="Q19">
-        <v>0.9974181668421053</v>
+        <v>0.9854761000000001</v>
       </c>
       <c r="R19">
-        <v>0.9989584500000001</v>
+        <v>0.9944869250000001</v>
       </c>
       <c r="S19">
-        <v>0.9989584500000001</v>
+        <v>0.9944869250000001</v>
       </c>
       <c r="T19">
-        <v>0.9997035290350879</v>
+        <v>0.9981068416666666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.006396526842105</v>
+        <v>0.9888877309589039</v>
       </c>
       <c r="D20">
-        <v>0.9744232884210525</v>
+        <v>1.044285950410959</v>
       </c>
       <c r="E20">
-        <v>1.006389938421053</v>
+        <v>0.989001912328767</v>
       </c>
       <c r="F20">
-        <v>0.9744232884210525</v>
+        <v>1.044285950410959</v>
       </c>
       <c r="G20">
-        <v>1.006389938421053</v>
+        <v>0.989001912328767</v>
       </c>
       <c r="H20">
-        <v>1.017058677894737</v>
+        <v>0.9703455435616437</v>
       </c>
       <c r="I20">
-        <v>0.9859312868421052</v>
+        <v>1.024383695068493</v>
       </c>
       <c r="J20">
-        <v>1.006394599473684</v>
+        <v>0.9889210199999997</v>
       </c>
       <c r="K20">
-        <v>1.006389938421053</v>
+        <v>0.989001912328767</v>
       </c>
       <c r="L20">
-        <v>1.006396526842105</v>
+        <v>0.9888877309589039</v>
       </c>
       <c r="M20">
-        <v>0.9904099076315789</v>
+        <v>1.016586840684931</v>
       </c>
       <c r="N20">
-        <v>0.9904099076315789</v>
+        <v>1.016586840684931</v>
       </c>
       <c r="O20">
-        <v>0.9889170340350876</v>
+        <v>1.019185792146118</v>
       </c>
       <c r="P20">
-        <v>0.9957365845614033</v>
+        <v>1.00739186456621</v>
       </c>
       <c r="Q20">
-        <v>0.9957365845614033</v>
+        <v>1.00739186456621</v>
       </c>
       <c r="R20">
-        <v>0.9983999230263156</v>
+        <v>1.002794376506849</v>
       </c>
       <c r="S20">
-        <v>0.9983999230263156</v>
+        <v>1.002794376506849</v>
       </c>
       <c r="T20">
-        <v>0.9994323863157893</v>
+        <v>1.000970975388128</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.002724931667661</v>
+        <v>1.003952777368421</v>
       </c>
       <c r="D21">
-        <v>0.9897079552393377</v>
+        <v>0.9847224236842105</v>
       </c>
       <c r="E21">
-        <v>1.00229955870053</v>
+        <v>1.003579299473684</v>
       </c>
       <c r="F21">
-        <v>0.9897079552393377</v>
+        <v>0.9847224236842105</v>
       </c>
       <c r="G21">
-        <v>1.00229955870053</v>
+        <v>1.003579299473684</v>
       </c>
       <c r="H21">
-        <v>1.007347508454681</v>
+        <v>1.010611881052632</v>
       </c>
       <c r="I21">
-        <v>0.9942409311711703</v>
+        <v>0.9915108994736841</v>
       </c>
       <c r="J21">
-        <v>1.002600916710594</v>
+        <v>1.003843893157895</v>
       </c>
       <c r="K21">
-        <v>1.00229955870053</v>
+        <v>1.003579299473684</v>
       </c>
       <c r="L21">
-        <v>1.002724931667661</v>
+        <v>1.003952777368421</v>
       </c>
       <c r="M21">
-        <v>0.9962164434534996</v>
+        <v>0.9943376005263158</v>
       </c>
       <c r="N21">
-        <v>0.9962164434534996</v>
+        <v>0.9943376005263158</v>
       </c>
       <c r="O21">
-        <v>0.9955579393593897</v>
+        <v>0.9933953668421053</v>
       </c>
       <c r="P21">
-        <v>0.9982441485358432</v>
+        <v>0.9974181668421053</v>
       </c>
       <c r="Q21">
-        <v>0.9982441485358432</v>
+        <v>0.9974181668421053</v>
       </c>
       <c r="R21">
-        <v>0.9992580010770149</v>
+        <v>0.9989584500000001</v>
       </c>
       <c r="S21">
-        <v>0.9992580010770149</v>
+        <v>0.9989584500000001</v>
       </c>
       <c r="T21">
-        <v>0.9998203003239957</v>
+        <v>0.9997035290350879</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000606737637396</v>
+        <v>1.006396526842105</v>
       </c>
       <c r="D22">
-        <v>0.9973229015443735</v>
+        <v>0.9744232884210525</v>
       </c>
       <c r="E22">
-        <v>1.00078182513898</v>
+        <v>1.006389938421053</v>
       </c>
       <c r="F22">
-        <v>0.9973229015443735</v>
+        <v>0.9744232884210525</v>
       </c>
       <c r="G22">
-        <v>1.00078182513898</v>
+        <v>1.006389938421053</v>
       </c>
       <c r="H22">
-        <v>1.001584642071828</v>
+        <v>1.017058677894737</v>
       </c>
       <c r="I22">
-        <v>0.9985681129572284</v>
+        <v>0.9859312868421052</v>
       </c>
       <c r="J22">
-        <v>1.00065779050995</v>
+        <v>1.006394599473684</v>
       </c>
       <c r="K22">
-        <v>1.00078182513898</v>
+        <v>1.006389938421053</v>
       </c>
       <c r="L22">
-        <v>1.000606737637396</v>
+        <v>1.006396526842105</v>
       </c>
       <c r="M22">
-        <v>0.9989648195908847</v>
+        <v>0.9904099076315789</v>
       </c>
       <c r="N22">
-        <v>0.9989648195908847</v>
+        <v>0.9904099076315789</v>
       </c>
       <c r="O22">
-        <v>0.9988325840463327</v>
+        <v>0.9889170340350876</v>
       </c>
       <c r="P22">
-        <v>0.9995704881069165</v>
+        <v>0.9957365845614033</v>
       </c>
       <c r="Q22">
-        <v>0.9995704881069164</v>
+        <v>0.9957365845614033</v>
       </c>
       <c r="R22">
-        <v>0.9998733223649323</v>
+        <v>0.9983999230263156</v>
       </c>
       <c r="S22">
-        <v>0.9998733223649323</v>
+        <v>0.9983999230263156</v>
       </c>
       <c r="T22">
-        <v>0.9999203349766259</v>
+        <v>0.9994323863157893</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.001628178870439</v>
+        <v>1.002724931667661</v>
       </c>
       <c r="D23">
-        <v>0.9930606403511493</v>
+        <v>0.9897079552393377</v>
       </c>
       <c r="E23">
-        <v>1.001926814300016</v>
+        <v>1.00229955870053</v>
       </c>
       <c r="F23">
-        <v>0.9930606403511493</v>
+        <v>0.9897079552393377</v>
       </c>
       <c r="G23">
-        <v>1.001926814300016</v>
+        <v>1.00229955870053</v>
       </c>
       <c r="H23">
-        <v>1.004284944662976</v>
+        <v>1.007347508454681</v>
       </c>
       <c r="I23">
-        <v>0.9962524615799423</v>
+        <v>0.9942409311711703</v>
       </c>
       <c r="J23">
-        <v>1.001715254269505</v>
+        <v>1.002600916710594</v>
       </c>
       <c r="K23">
-        <v>1.001926814300016</v>
+        <v>1.00229955870053</v>
       </c>
       <c r="L23">
-        <v>1.001628178870439</v>
+        <v>1.002724931667661</v>
       </c>
       <c r="M23">
-        <v>0.997344409610794</v>
+        <v>0.9962164434534996</v>
       </c>
       <c r="N23">
-        <v>0.997344409610794</v>
+        <v>0.9962164434534996</v>
       </c>
       <c r="O23">
-        <v>0.9969804269338435</v>
+        <v>0.9955579393593897</v>
       </c>
       <c r="P23">
-        <v>0.9988718778405344</v>
+        <v>0.9982441485358432</v>
       </c>
       <c r="Q23">
-        <v>0.9988718778405344</v>
+        <v>0.9982441485358432</v>
       </c>
       <c r="R23">
-        <v>0.9996356119554047</v>
+        <v>0.9992580010770149</v>
       </c>
       <c r="S23">
-        <v>0.9996356119554047</v>
+        <v>0.9992580010770149</v>
       </c>
       <c r="T23">
-        <v>0.9998113823390044</v>
+        <v>0.9998203003239957</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000463792942587</v>
+        <v>1.000606737637396</v>
       </c>
       <c r="D24">
-        <v>0.9983240710954566</v>
+        <v>0.9973229015443735</v>
       </c>
       <c r="E24">
-        <v>1.000338328286865</v>
+        <v>1.00078182513898</v>
       </c>
       <c r="F24">
-        <v>0.9983240710954566</v>
+        <v>0.9973229015443735</v>
       </c>
       <c r="G24">
-        <v>1.000338328286865</v>
+        <v>1.00078182513898</v>
       </c>
       <c r="H24">
-        <v>1.001260677753924</v>
+        <v>1.001584642071828</v>
       </c>
       <c r="I24">
-        <v>0.9990492061484643</v>
+        <v>0.9985681129572284</v>
       </c>
       <c r="J24">
-        <v>1.000427214557603</v>
+        <v>1.00065779050995</v>
       </c>
       <c r="K24">
-        <v>1.000338328286865</v>
+        <v>1.00078182513898</v>
       </c>
       <c r="L24">
-        <v>1.000463792942587</v>
+        <v>1.000606737637396</v>
       </c>
       <c r="M24">
-        <v>0.999393932019022</v>
+        <v>0.9989648195908847</v>
       </c>
       <c r="N24">
-        <v>0.999393932019022</v>
+        <v>0.9989648195908847</v>
       </c>
       <c r="O24">
-        <v>0.9992790233955028</v>
+        <v>0.9988325840463327</v>
       </c>
       <c r="P24">
-        <v>0.9997087307749696</v>
+        <v>0.9995704881069165</v>
       </c>
       <c r="Q24">
-        <v>0.9997087307749696</v>
+        <v>0.9995704881069164</v>
       </c>
       <c r="R24">
-        <v>0.9998661301529435</v>
+        <v>0.9998733223649323</v>
       </c>
       <c r="S24">
-        <v>0.9998661301529435</v>
+        <v>0.9998733223649323</v>
       </c>
       <c r="T24">
-        <v>0.9999772151308166</v>
+        <v>0.9999203349766259</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.009885808848352</v>
+        <v>1.001628178870439</v>
       </c>
       <c r="D25">
-        <v>0.9602868156588219</v>
+        <v>0.9930606403511493</v>
       </c>
       <c r="E25">
-        <v>1.01000477125186</v>
+        <v>1.001926814300016</v>
       </c>
       <c r="F25">
-        <v>0.9602868156588219</v>
+        <v>0.9930606403511493</v>
       </c>
       <c r="G25">
-        <v>1.01000477125186</v>
+        <v>1.001926814300016</v>
       </c>
       <c r="H25">
-        <v>1.026339519567837</v>
+        <v>1.004284944662976</v>
       </c>
       <c r="I25">
-        <v>0.978185285694646</v>
+        <v>0.9962524615799423</v>
       </c>
       <c r="J25">
-        <v>1.009920491676321</v>
+        <v>1.001715254269505</v>
       </c>
       <c r="K25">
-        <v>1.01000477125186</v>
+        <v>1.001926814300016</v>
       </c>
       <c r="L25">
-        <v>1.009885808848352</v>
+        <v>1.001628178870439</v>
       </c>
       <c r="M25">
-        <v>0.9850863122535871</v>
+        <v>0.997344409610794</v>
       </c>
       <c r="N25">
-        <v>0.9850863122535871</v>
+        <v>0.997344409610794</v>
       </c>
       <c r="O25">
-        <v>0.9827859700672734</v>
+        <v>0.9969804269338435</v>
       </c>
       <c r="P25">
-        <v>0.9933924652530114</v>
+        <v>0.9988718778405344</v>
       </c>
       <c r="Q25">
-        <v>0.9933924652530114</v>
+        <v>0.9988718778405344</v>
       </c>
       <c r="R25">
-        <v>0.9975455417527236</v>
+        <v>0.9996356119554047</v>
       </c>
       <c r="S25">
-        <v>0.9975455417527236</v>
+        <v>0.9996356119554047</v>
       </c>
       <c r="T25">
-        <v>0.9991037821163063</v>
+        <v>0.9998113823390044</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.002610240226877</v>
+        <v>1.000463792942587</v>
       </c>
       <c r="D26">
-        <v>0.9896280724699763</v>
+        <v>0.9983240710954566</v>
       </c>
       <c r="E26">
-        <v>1.002561924092682</v>
+        <v>1.000338328286865</v>
       </c>
       <c r="F26">
-        <v>0.9896280724699763</v>
+        <v>0.9983240710954566</v>
       </c>
       <c r="G26">
-        <v>1.002561924092682</v>
+        <v>1.000338328286865</v>
       </c>
       <c r="H26">
-        <v>1.006969844814552</v>
+        <v>1.001260677753924</v>
       </c>
       <c r="I26">
-        <v>0.9942842547364354</v>
+        <v>0.9990492061484643</v>
       </c>
       <c r="J26">
-        <v>1.00259615183624</v>
+        <v>1.000427214557603</v>
       </c>
       <c r="K26">
-        <v>1.002561924092682</v>
+        <v>1.000338328286865</v>
       </c>
       <c r="L26">
-        <v>1.002610240226877</v>
+        <v>1.000463792942587</v>
       </c>
       <c r="M26">
-        <v>0.9961191563484266</v>
+        <v>0.999393932019022</v>
       </c>
       <c r="N26">
-        <v>0.9961191563484266</v>
+        <v>0.999393932019022</v>
       </c>
       <c r="O26">
-        <v>0.9955075224777629</v>
+        <v>0.9992790233955028</v>
       </c>
       <c r="P26">
-        <v>0.9982667455965117</v>
+        <v>0.9997087307749696</v>
       </c>
       <c r="Q26">
-        <v>0.9982667455965117</v>
+        <v>0.9997087307749696</v>
       </c>
       <c r="R26">
-        <v>0.9993405402205543</v>
+        <v>0.9998661301529435</v>
       </c>
       <c r="S26">
-        <v>0.9993405402205543</v>
+        <v>0.9998661301529435</v>
       </c>
       <c r="T26">
-        <v>0.9997750813627938</v>
+        <v>0.9999772151308166</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9981862414686992</v>
+        <v>1.009885808848352</v>
       </c>
       <c r="D27">
-        <v>1.00724474927493</v>
+        <v>0.9602868156588219</v>
       </c>
       <c r="E27">
-        <v>0.9981934321675275</v>
+        <v>1.01000477125186</v>
       </c>
       <c r="F27">
-        <v>1.00724474927493</v>
+        <v>0.9602868156588219</v>
       </c>
       <c r="G27">
-        <v>0.9981934321675275</v>
+        <v>1.01000477125186</v>
       </c>
       <c r="H27">
-        <v>0.9951619627560849</v>
+        <v>1.026339519567837</v>
       </c>
       <c r="I27">
-        <v>1.003986286561895</v>
+        <v>0.978185285694646</v>
       </c>
       <c r="J27">
-        <v>0.9981883482093247</v>
+        <v>1.009920491676321</v>
       </c>
       <c r="K27">
-        <v>0.9981934321675275</v>
+        <v>1.01000477125186</v>
       </c>
       <c r="L27">
-        <v>0.9981862414686992</v>
+        <v>1.009885808848352</v>
       </c>
       <c r="M27">
-        <v>1.002715495371814</v>
+        <v>0.9850863122535871</v>
       </c>
       <c r="N27">
-        <v>1.002715495371814</v>
+        <v>0.9850863122535871</v>
       </c>
       <c r="O27">
-        <v>1.003139092435175</v>
+        <v>0.9827859700672734</v>
       </c>
       <c r="P27">
-        <v>1.001208140970385</v>
+        <v>0.9933924652530114</v>
       </c>
       <c r="Q27">
-        <v>1.001208140970385</v>
+        <v>0.9933924652530114</v>
       </c>
       <c r="R27">
-        <v>1.000454463769671</v>
+        <v>0.9975455417527236</v>
       </c>
       <c r="S27">
-        <v>1.000454463769671</v>
+        <v>0.9975455417527236</v>
       </c>
       <c r="T27">
-        <v>1.000160170073077</v>
+        <v>0.9991037821163063</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.002114922908906</v>
+        <v>1.002610240226877</v>
       </c>
       <c r="D28">
-        <v>0.9916039621993677</v>
+        <v>0.9896280724699763</v>
       </c>
       <c r="E28">
-        <v>1.002070398310387</v>
+        <v>1.002561924092682</v>
       </c>
       <c r="F28">
-        <v>0.9916039621993677</v>
+        <v>0.9896280724699763</v>
       </c>
       <c r="G28">
-        <v>1.002070398310387</v>
+        <v>1.002561924092682</v>
       </c>
       <c r="H28">
-        <v>1.005648245832334</v>
+        <v>1.006969844814552</v>
       </c>
       <c r="I28">
-        <v>0.9953718739847448</v>
+        <v>0.9942842547364354</v>
       </c>
       <c r="J28">
-        <v>1.002101925236739</v>
+        <v>1.00259615183624</v>
       </c>
       <c r="K28">
-        <v>1.002070398310387</v>
+        <v>1.002561924092682</v>
       </c>
       <c r="L28">
-        <v>1.002114922908906</v>
+        <v>1.002610240226877</v>
       </c>
       <c r="M28">
-        <v>0.9968594425541368</v>
+        <v>0.9961191563484266</v>
       </c>
       <c r="N28">
-        <v>0.9968594425541368</v>
+        <v>0.9961191563484266</v>
       </c>
       <c r="O28">
-        <v>0.9963635863643395</v>
+        <v>0.9955075224777629</v>
       </c>
       <c r="P28">
-        <v>0.9985964278062203</v>
+        <v>0.9982667455965117</v>
       </c>
       <c r="Q28">
-        <v>0.9985964278062203</v>
+        <v>0.9982667455965117</v>
       </c>
       <c r="R28">
-        <v>0.999464920432262</v>
+        <v>0.9993405402205543</v>
       </c>
       <c r="S28">
-        <v>0.999464920432262</v>
+        <v>0.9993405402205543</v>
       </c>
       <c r="T28">
-        <v>0.9998185547454131</v>
+        <v>0.9997750813627938</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9981862414686992</v>
+      </c>
+      <c r="D29">
+        <v>1.00724474927493</v>
+      </c>
+      <c r="E29">
+        <v>0.9981934321675275</v>
+      </c>
+      <c r="F29">
+        <v>1.00724474927493</v>
+      </c>
+      <c r="G29">
+        <v>0.9981934321675275</v>
+      </c>
+      <c r="H29">
+        <v>0.9951619627560849</v>
+      </c>
+      <c r="I29">
+        <v>1.003986286561895</v>
+      </c>
+      <c r="J29">
+        <v>0.9981883482093247</v>
+      </c>
+      <c r="K29">
+        <v>0.9981934321675275</v>
+      </c>
+      <c r="L29">
+        <v>0.9981862414686992</v>
+      </c>
+      <c r="M29">
+        <v>1.002715495371814</v>
+      </c>
+      <c r="N29">
+        <v>1.002715495371814</v>
+      </c>
+      <c r="O29">
+        <v>1.003139092435175</v>
+      </c>
+      <c r="P29">
+        <v>1.001208140970385</v>
+      </c>
+      <c r="Q29">
+        <v>1.001208140970385</v>
+      </c>
+      <c r="R29">
+        <v>1.000454463769671</v>
+      </c>
+      <c r="S29">
+        <v>1.000454463769671</v>
+      </c>
+      <c r="T29">
+        <v>1.000160170073077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.002114922908906</v>
+      </c>
+      <c r="D30">
+        <v>0.9916039621993677</v>
+      </c>
+      <c r="E30">
+        <v>1.002070398310387</v>
+      </c>
+      <c r="F30">
+        <v>0.9916039621993677</v>
+      </c>
+      <c r="G30">
+        <v>1.002070398310387</v>
+      </c>
+      <c r="H30">
+        <v>1.005648245832334</v>
+      </c>
+      <c r="I30">
+        <v>0.9953718739847448</v>
+      </c>
+      <c r="J30">
+        <v>1.002101925236739</v>
+      </c>
+      <c r="K30">
+        <v>1.002070398310387</v>
+      </c>
+      <c r="L30">
+        <v>1.002114922908906</v>
+      </c>
+      <c r="M30">
+        <v>0.9968594425541368</v>
+      </c>
+      <c r="N30">
+        <v>0.9968594425541368</v>
+      </c>
+      <c r="O30">
+        <v>0.9963635863643395</v>
+      </c>
+      <c r="P30">
+        <v>0.9985964278062203</v>
+      </c>
+      <c r="Q30">
+        <v>0.9985964278062203</v>
+      </c>
+      <c r="R30">
+        <v>0.999464920432262</v>
+      </c>
+      <c r="S30">
+        <v>0.999464920432262</v>
+      </c>
+      <c r="T30">
+        <v>0.9998185547454131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.007580556009474</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9696859848469154</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.007574876011742</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9696859848469154</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.007574876011742</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.020215843011948</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9833259797293258</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.007578876826781</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.007574876011742</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.007580556009474</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9886332704281948</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9886332704281948</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9868641735285718</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9949471389560438</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9949471389560438</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9981040732199682</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9981040732199682</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.999327019406031</v>
       </c>
     </row>
